--- a/output/Total_time_range_data/青海省/海东市_学习考察.xlsx
+++ b/output/Total_time_range_data/青海省/海东市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,958 +436,1050 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>288</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>王华杰先后主持召开市政府党组会议和常务会议传达学习近期重要文件会议精神安排政府系统贯彻落实工作</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-08-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/96474.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['王华杰先后主持召开市政府党组会议和常务会议 传达学习近期重要文件会议精神 安排政府系统贯彻落实工作', '王华杰先后主持召开市政府党组会议和常务会议 传达学习近期重要文件会议精神 安排政府系统贯彻落实工作', '日，市政府党组书记、市长王华杰先后主持召开市政府党组会议和常务会议，传达学习中央和省市有关会议、文件精神，安排政府系统贯彻落实工作。', '会议传达学习习近平总书记向新冠疫苗合作国际论坛首次会议发表的书面致辞、在《求是》杂志发表的重要文章《总结党的历史经验，加强党的政治建设》；中央财经委员会第十次会议、中共中央召开的党外人士座谈会、全国安全防范工作紧急视频会议、全省安全生产电视电话会议；中共中央国务院印发的《法治政府建设实施纲要（2021—2025年）》和中共中央办公厅国务院办公厅印发的《关于进一步加强非物质文化遗产保护工作的意见》。强调，市政府党组及其成员要坚持个人自学与集中研讨相结合，准确掌握政策方向，紧密联系政府工作实际和分管领域，全面系统学、深入思考学，把学习成果体现到政府工作的各领域各环节。', '会议传达学习习近平总书记向新冠疫苗合作国际论坛首次会议发表的书面致辞、在《求是》杂志发表的重要文章《总结党的历史经验，加强党的政治建设》；中央财经委员会第十次会议、中共中央召开的党外人士座谈会、全国安全防范工作紧急视频会议、全省安全生产电视电话会议；中共中央国务院印发的《法治政府建设实施纲要（', '年）》和中共中央办公厅国务院办公厅印发的《关于进一步加强非物质文化遗产保护工作的意见》。强调，市政府党组及其成员要坚持个人自学与集中研讨相结合，准确掌握政策方向，紧密联系政府工作实际和分管领域，全面系统学、深入思考学，把学习成果体现到政府工作的各领域各环节。', '会议传达学习市第三次党代会和市两会精神。强调，市政府党组及其成员要自觉把传达、学习、贯彻市三个会议精神作为当前的首要政治任务，带头思考研究，带头宣传阐释，带头贯彻落实，迅速把会议精神传达到基层一线，更加广泛凝聚起干事创业的合力。全市政府系统要切实把思想和行动统一到市第三次党代会和市两会精神上来，坚定不移讲政治、谋发展、抓生态、保民生、促改革、转作风，答好“六张答卷”。要紧盯年度目标任务，聚焦“十个底线”，进一步理清思路、强化措施，自我加压，奋力冲刺，更加高效务实做好经济运行、生态环保、民生保障、项目建设、招商引资、安全生产等重点工作，确保全年目标任务高质量完成。', '会议听取全市招商引资工作情况汇报。强调，政府系统要进一步提高政治站位，统一思想认识，把招商引资工作作为提升项目支撑力、经济发展力和市场持续力的重要抓手，作为聚集产业发展活力和增加群众收入的重要途径，持续推进“放管服”改革，切实把招商引资和优化营商环境工作抓紧、抓好、抓出成效。要紧抓东西部产业转移承接机遇，全面落实《青海省优化营商环境条例》，加大对外招商力度，突出重点抓招商、创新方式抓招商、用活政策抓招商，近期迅速开展学习考察活动，研究制定符合海东实际的优化营商环境相关政策，努力把我市打造成全省乃至西部营商环境最好的城市之一。要狠抓招商项目落地，重点关注签约率和落地率，千方百计帮助解决在建招商项目困难问题，确保按时建成投产；加强已建成项目的跟踪服务，切实提高合同履约率、资金到位率和项目投产率，创造良好的营商环境。', '会议听取全市招商引资工作情况汇报。强调，政府系统要进一步提高政治站位，统一思想认识，把招商引资工作作为提升项目支撑力、经济发展力和市场持续力的重要抓手，作为聚集产业发展活力和增加群众收入的重要途径，持续推进']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>288</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>海东市人民政府办公室关于印发年海东市大众创业万众创新活动周实施方案的通知</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-10-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/52/70685.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['中国·青海门户网—海东市人民政府办公室 关于印发2018年海东市大众创业万众创新 活动周实施方案的通知', '海东市人民政府办公室 关于印发2018年海东市大众创业万众创新 活动周实施方案的通知', '《2018年海东市大众创业万众创新活动周实施方案》已经市政府同意，现印发给你们，请结合各自实际，认真组织实施。', '为进一步营造大众创业万众创新的浓厚氛围，激发大众智慧和创造力，汇集发展新动力，促进初创企业健康发展，根据', '《国家发展改革委关于做好2018年全国大众创业万众创新活动周筹备工作的通知》（发改高技', '）和《青海省科技厅关于做好2018年青海省大众创业万众创新活动周筹备工作的通知》（青科发高新', '要求，定于10月9日至10月15日举办2018年大众创业万众创新活动周（以下简称活动周），结合实际，特制定本实施方案。', '紧扣“高水平双创，高质量发展”活动主题，动员全社会力量开展成果展示、会议论坛、文化传播、创业辅导、项目竞赛等活动，深入宣传贯彻双创政策、展示双创成果，', '促进要素集聚对接，营造良好社会氛围，激发广大群众热情，全面掀起“双创”热潮，加快我市双创示范基地建设', '要广泛动员，以创新创业者为中心，采用政府搭台、多方合作的方式，引导各种社会资源和专业机构积极参与活动周，展示各层面各领域的双创成果，释放全民创新创业的潜能，为发展新经济，培育新动能创造良好条件。', '5. 活动内容：展示科技企业孵化器、创业孵化基地、“互联网+”项目、创新创业大赛获奖企业、青年创业大赛、光伏产品、新材料等成果。', '5. 活动内容：邀请创投入士、知名企业家，通过举办创业辅导、讲座，宣传双创工作新举措、阐释双创政策、交流双创成果，总结经验，促进合作和交流。', '5. 活动内容：组织各县区科技、科协双创工作人员及双创企业、协会负责人赴甘肃省张掖、武威市等地考察学习双创工作。', '2. 配合单位：农村专业技术协会、农村专业技术协会联合会、农业示范园区、川口社区等', '5. 活动内容：邀请专家进行“创响中国”专题讲座，开展改革开放四十年创业代表座谈。通过交流讨论，分享双创经验。开展大众创业万众创新专题讲座，提升创新创业层次，激发创新创业动力。创新创业展示：通过创业项目和创新成果的展示及引进生产的新特农产品展示，开展群众现场互动体验，激发群众认同感和创新创业激情；创新创业宣传及咨询：着力就大众创业万众创新及群众农牧业生产、生态环境保护等热点、焦点问题解疑释惑，助力发展。', '5. 活动内容：在平安广场开展大型双创宣传活动，宣传平安，提升平安知名度，展示平安新形象；宣传平安富硒产业及近年来的各类新产品、新技术及新成果。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>288</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>乐都区深度贫困地区脱贫攻坚的乐都经验</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-02-23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/41/91049.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['脱贫攻坚工作开展以来，海东市乐都区所有参战人员沉下身子，走村入户，打基础、兴产业、补短板、强弱项，着力改变贫困村的村容村貌，改善老百姓的生产生活，在这场为民谋幸福的时代大考、能力大考、智慧大考中，乐都区圆满收官，交出了深度贫困地区脱贫攻坚的优秀答卷。', '个，分别是南山片区的蒲台乡、中坝乡，北山片区的寿乐镇、达拉乡、中岭乡、李家乡、马营乡、马厂乡、芦花乡，涉及', '寿乐镇土官口村，昔日里一条土巷道两旁坐落着几间土坯房，如今，新建的商业一条街阔气又繁荣；共和乡高营村，吃水难曾是村民无法言说的痛，如今，打开水龙头就流出了甘甜的山泉水；蒲台乡头庄村，闭塞的信息制约了经济的发展，如今，通信网络全覆盖，老百姓在网络上开始销售农产品了……在全面决战决胜脱贫攻坚战中，乐都区众志成城、攻坚克难，因地制宜打造脱贫攻坚的“乐都经验”。', '寿乐镇土官口村，昔日里一条土巷道两旁坐落着几间土坯房，如今，新建的商业一条街阔气又繁荣；共和乡高营村，吃水难曾是村民无法言说的痛，如今，打开水龙头就流出了甘甜的山泉水；蒲台乡头庄村，闭塞的信息制约了经济的发展，如今，通信网络全覆盖，老百姓在网络上开始销售农产品了', '坚持扶贫标准，确保惠民政策落地生根。教育扶贫领域累计投资0.77亿元，完成9个深度贫困乡镇改薄项目71个，加大控辍保学力度，建立流失学生动员劝返工作机制、义务教育入学联控联保工作机制。健康扶贫领域全面落实健康扶贫“六减”“四优先十覆盖”“先住院后结算”及“一站式结算”服务等优惠政策，争取项目资金1620万元，新建有集体产权、四室分设的标准化村卫生室23个、维修135个，深度贫困乡所有村卫生室配备基本医疗设备。培训就业领域投入2789万元，在深度贫困乡镇实施产业、就业、创业实用技术和技能培训1.8万人次，四年累计输出深度贫困乡镇劳动力6.8万余人次，转移就业贫困劳动力1.5万余人，开发公益专岗安置贫困劳动力1204人次，在劳务输出工程中逐步打造出北山“高原电建”、南山“蒲台水暖工”劳务品牌。综合保障领域全面落实农村低保与扶贫工作有效衔接，对无劳动能力或部分丧失劳动能力贫困人口实行政策性保障兜底，累计为全区所有建档立卡户发放低保金、取暖费、物价补贴等共计2亿元，对符合条件的贫困人口均落实了代缴养老保险费和医疗保险费政策，切实减轻了贫困群众医疗、生活负担。生态扶贫领域优先安排深度贫困乡镇生态护林员管护岗位1502人次，人均增收7600元，生态脱贫成为贫困户增收新渠道。', '个，加大控辍保学力度，建立流失学生动员劝返工作机制、义务教育入学联控联保工作机制。健康扶贫领域全面落实健康扶贫“六减”“四优先十覆盖”“先住院后结算”及“一站式结算”服务等优惠政策，争取项目资金', '人次，在劳务输出工程中逐步打造出北山“高原电建”、南山“蒲台水暖工”劳务品牌。综合保障领域全面落实农村低保与扶贫工作有效衔接，对无劳动能力或部分丧失劳动能力贫困人口实行政策性保障兜底，累计为全区所有建档立卡户发放低保金、取暖费、物价补贴等共计', '亿元，对符合条件的贫困人口均落实了代缴养老保险费和医疗保险费政策，切实减轻了贫困群众医疗、生活负担。生态扶贫领域优先安排深度贫困乡镇生态护林员管护岗位', '严格政策落实，持续改善基础设施短板。加大和优先安排深度贫困地区公益性基础设施、社会事业领域重大工程建设项目倾斜和投入力度。安全住房方面，累计投入近0.71亿元完成深度贫困乡镇3355户农户危房改造，群众安全住房切实得到保障。交通道路方面，累计投资2.72亿元完成88个贫困村村道硬化、桥梁配套、易地搬迁安置点道路配套及六盘山脱贫攻坚示范项目，深度贫困乡镇所有行政村道路硬化全覆盖。安全饮水方面，累计投入0.51亿元实施饮水安全巩固提升工程，特别是针对马厂、芦花等乡镇季节性缺水问题，通过采取查漏补缺补短板的方式，彻底解决了深度贫困乡镇2.6万户9.25万名群众吃水难问题，安全饮水问题得到切实保障。美丽乡村建设方面，累计投入1.18亿元，完成9个深度贫困乡镇88个村高原美丽乡村建设项目，实现所有贫困村高原美丽乡村全覆盖。', '严格政策落实，持续改善基础设施短板。加大和优先安排深度贫困地区公益性基础设施、社会事业领域重大工程建设项目倾斜和投入力度。安全住房方面，累计投入近', '个贫困村村道硬化、桥梁配套、易地搬迁安置点道路配套及六盘山脱贫攻坚示范项目，深度贫困乡镇所有行政村道路硬化全覆盖。安全饮水方面，累计投入', '亿元实施饮水安全巩固提升工程，特别是针对马厂、芦花等乡镇季节性缺水问题，通过采取查漏补缺补短板的方式，彻底解决了深度贫困乡镇', '着眼长远发展，精准实施产业项目。产业方面，累计投入3.9亿余元，通过在深度贫困村组建集体经济组织、培育新型经营主体，实施到户产业、旅游扶贫、扶持家庭农牧场和产业基地打造，带动5868户贫困群众实现产业增收，实现有劳动能力的建档立卡贫困户到户产业全覆盖。积极培育扶贫新业态，141个贫困村联建的39兆瓦集中式光伏发电项目成功并网发电，直接带动深度贫困乡镇5844户截至2020年底共收益5502万元。全面启动村集体经济“破零”工程，9个深度贫困乡镇所有行政村均实现“破零”。特别是在寿乐镇实施的引胜沟东西部扶贫协作农业产业园项目，新建钢架拱棚878栋，拱棚累计达8000余栋，直接带动引胜沟14个村1.4万人稳定增收，全面覆盖14个村606户有劳动能力和有意愿的建档立卡户，成为全省最大的万栋拱棚基地，减贫带贫成效明显。', '亿余元，通过在深度贫困村组建集体经济组织、培育新型经营主体，实施到户产业、旅游扶贫、扶持家庭农牧场和产业基地打造，带动', '户贫困群众实现产业增收，实现有劳动能力的建档立卡贫困户到户产业全覆盖。积极培育扶贫新业态，', '个深度贫困乡镇所有行政村均实现“破零”。特别是在寿乐镇实施的引胜沟东西部扶贫协作农业产业园项目，新建钢架拱棚', '实施易地搬迁，改善生产生活条件。累计投入13.4亿元，完成“十三五”易地扶贫搬迁和东部干旱山区2个深度贫困乡镇以及1个村整乡整村搬迁试点项目建设任务，共建成“梦圆居”、七里店等11个易地扶贫搬迁安置点，共搬迁16个乡镇涉及160个村6901户22561人。深度贫困乡镇易地扶贫搬迁项目共涉及2个乡镇26个村社，搬迁安置农户2377户9394人，其中建档立卡户159户425人，占全区搬迁总户数的31.8%，目前已全部完成旧房拆除并入住。', '乐都区副区长马元平告诉记者，脱贫攻坚留给乐都的是乡村治理的有效实践，在这场战役中，探索形成了行业协调、区域协作、社会力量协力参与、贫困群众协商共建的工作格局。这一套成熟完善的治理体系，为推动农村工作体系和政策措施与乡村振兴实现有机衔接奠定了坚实基础；留下了一支长期不走的驻村工作队。脱贫攻坚工作锤炼了一支“蹲得实、驻得稳、帮得好”的驻村干部队伍，根据有关要求，驻村工作队将长期驻留在乐都的各个村庄，成为推动农村发展的生力军，成为持续稳定脱贫致富的中坚力量；夯实了党在农村扎实的执政根基。乐都区在脱贫攻坚进程中，通过发挥党组织的引领带动作用，有效促进了集体经济发展壮大，极大提升了贫困地区基层党组织的治理能力。巩固了农村基本经营制度，夯实了党在农村的执政根基。', '乐都区副区长马元平告诉记者，脱贫攻坚留给乐都的是乡村治理的有效实践，在这场战役中，探索形成了行业协调、区域协作、社会力量协力参与、贫困群众协商共建的工作格局。这一套成熟完善的治理体系，为推动农村工作体系和政策措施与乡村振兴实现有机衔接奠定了坚实基础；留下了一支长期不走的驻村工作队。脱贫攻坚工作锤炼了一支', '经过持续攻坚和不懈努力，乐都深度贫困地区基础设施大改善、产业得到大发展、公共服务大提升、区域经济全面发展、社会治理大加强、贫困面貌彻底改变，贫困群众的脱贫致富能力有效提升、生产和生活水平不断提高、经济收入大幅增加、满意度和幸福安全指数大幅提升。', '全区141个贫困村（其中深度贫困乡镇88个贫困村）全部实现退出，8798户29663人脱贫，“十三五”脱贫攻坚目标任务全部完成，顺利实现整体脱贫摘帽，各项工作取得决定性进展，顺利通过了脱贫攻坚成效考核、评估、普查验收，得到了各级领导的好评。特别是2020年的脱贫成效，为下一步乡村振兴提供了有效的经验和典型示范案例。', '人脱贫，“十三五”脱贫攻坚目标任务全部完成，顺利实现整体脱贫摘帽，各项工作取得决定性进展，顺利通过了脱贫攻坚成效考核、评估、普查验收，得到了各级领导的好评。特别是', '在工作推进中，乐都区聚焦“六个精准”和“八个一批”，打出了“1+8+10+20”脱贫攻坚“组合拳”，各行各业累计用于扶贫的资金达到84.5亿元，全面补齐基础设施发展短板，安全生产生活用电、安全饮水、通信网络、村道硬化、标准化村卫生室、村级综合服务中心、建档立卡贫困户到户产业和贫困村高原美丽乡村实现“八个全覆盖”，形成“区有扶贫产业园、乡有特色产业、村有主导产业、户有增收项目”的产业发展格局，辐射带动全区2.9万名贫困人口增收，扶贫成效更加凸显，一产增加值由2015年的11.38亿元跃升为2019年的15.1亿元，推动了扶贫工作从“输血”向“造血”转变。圆满完成“十三五”易地扶贫搬迁和东部干旱山区整乡整村搬迁试点各项建设任务，共建成“梦圆居”、七里店、李家壕等11个易地扶贫搬迁安置点，16个乡镇160个村6901户22561人进城上楼，圆梦新居。', '亿元，全面补齐基础设施发展短板，安全生产生活用电、安全饮水、通信网络、村道硬化、标准化村卫生室、村级综合服务中心、建档立卡贫困户到户产业和贫困村高原美丽乡村实现“八个全覆盖”，形成“区有扶贫产业园、乡有特色产业、村有主导产业、户有增收项目”的产业发展格局，辐射带动全区', '亿元，推动了扶贫工作从“输血”向“造血”转变。圆满完成“十三五”易地扶贫搬迁和东部干旱山区整乡整村搬迁试点各项建设任务，共建成“梦圆居”、七里店、李家壕等', '2020年4月乐都区顺利通过了贫困县退出专项评估，8月顺利通过国家脱贫攻坚普查，9月被省委、省政府表彰为“青海省2019年度脱贫攻坚先进集体”。10月被国家发改委评为2020年易地扶贫搬迁成效显著县，七里店安置区被评为全国美丽安置区，1名扶贫干部荣获“全国奋进易地扶贫搬迁干部”荣誉称号。', '经过五年奋力攻坚和探索实践，乐都区脱贫攻坚工作取得了决定性进展和成效，形成了一些具有乐都特色的工作亮点和有益启示——', '经过五年奋力攻坚和探索实践，乐都区脱贫攻坚工作取得了决定性进展和成效，形成了一些具有乐都特色的工作亮点和有益启示', '“下山上楼”易地扶贫搬迁搬出幸福新生活。累计搬迁人口占全市搬迁总人口的46%，搬迁规模居全市之首，切实改善了近2.3万人的居住条件，山区生态环境得到修复和发展，加快了贫困地区脱贫攻坚和经济社会发展进程。“扶志扶智”贫困地区儿童享受优质学前教育。贫困地区儿童早期发展项目历经十年试点探索，已在全国11个省（区）的30个贫困县推广，“一村一园计划”分别受到习近平总书记和时任国务院副总理刘延东批示肯定。', '万人的居住条件，山区生态环境得到修复和发展，加快了贫困地区脱贫攻坚和经济社会发展进程。“扶志扶智”贫困地区儿童享受优质学前教育。贫困地区儿童早期发展项目历经十年试点探索，已在全国', '个贫困县推广，“一村一园计划”分别受到习近平总书记和时任国务院副总理刘延东批示肯定。', '接续实施的“慧育中国”项目已成为国内为数不多的实现0-6岁儿童早期发展公共服务全覆盖的区县之一，全区学前教育普及程度走在全省前列，“乐都贫困地区早教模式构建及推广研究”荣获国家级教学成果二等奖，并成为世界教育创新项目奖创办以来第一个获奖的中国项目。', '岁儿童早期发展公共服务全覆盖的区县之一，全区学前教育普及程度走在全省前列，“乐都贫困地区早教模式构建及推广研究”荣获国家级教学成果二等奖，并成为世界教育创新项目奖创办以来第一个获奖的中国项目。', '产业扶贫特色产业培育走出增收新路子。在特色种养殖业路径上探索走出了以引胜沟长辣椒特色种植产业、下营沟养殖产业园等为主的“一沟一特色、一沟一亮点”区域经济产业发展模式，“八园一场五基地”农牧业产业格局基本形成。', '产业扶贫特色产业培育走出增收新路子。在特色种养殖业路径上探索走出了以引胜沟长辣椒特色种植产业、下营沟养殖产业园等为主的', '“农旅融合”乡村旅游成为脱贫致富新引擎。卯寨景区党总支创新的“抓党建促脱贫攻坚、抓党建促乡村旅游、抓党建促乡村振兴”的“一抓三促”模式，使乡村旅游品牌效应持续发挥，成为全市乡村旅游示范“领头羊”、全省旅游扶贫新亮点，带动近千人吃上“旅游饭”。', '“东成西就”东西部扶贫协作奏响帮扶新乐章。全市首座对口帮扶援建九年一贯制东林学校，将为芦花、中坝等11个乡镇易地扶贫搬迁农户近1300名中小学生及幼儿提供优质教学服务；引胜沟东西部扶贫协作农业产业园成为全省最大的万栋拱棚基地，减贫带贫成效明显。', '名中小学生及幼儿提供优质教学服务；引胜沟东西部扶贫协作农业产业园成为全省最大的万栋拱棚基地，减贫带贫成效明显。', '“六融工作”党建引领打造基层社会治理新样板。聚焦城乡基层治理制度创新和能力建设，在七里店社区党支部创造性开展了融畅体系、融享设施、融学技能、融洽关系、融合治理、融汇民心的“六融”工作法，有效提升了社区的服务能力和管理水平。', '“激发动力”，移风易俗焕发脱贫新风采。高度重视精神扶贫工作，牢牢扭住移风易俗这一关键，有效解决了群众因婚丧嫁娶讲排场、搞攀比等导致的致贫返贫问题，切实减轻了群众尤其是贫困户的经济负担。', '“构筑高地”驻村扶贫工作队塑造基层新精神。在全省率先推出由区财政统筹调配、统一拨付的帮扶经费落实机制，对表现优秀、实绩突出、群众公认度高且符合任职资格条件的61名“第一书记”和驻村工作队员提拔使用，形成了在扶贫一线淬炼“尖刀兵”的良好导向。', '脱贫攻坚乐都圆满收官，走进“十四五”，乐都区保持脱贫攻坚工作不停顿、不放松、不懈怠，坚决摒弃“大功告成”“马放南山”的思想，百尺竿头再加劲，继续巩固发展成果，把防返贫工作摆在突出位置，筑牢防止致贫返贫的“安全网”，坚决防止返贫。同时，继续推进产业、就业、消费扶贫、帮扶协作等常规工作，不折不扣抓好问题整改销号工作，按期全面完成各类问题整改。持续做好易地搬迁后续产业发展，拓宽群众增收渠道，同步抓好脱贫攻坚总结宣传，讲好乐都脱贫故事。全方位推进脱贫攻坚巩固提升和乡村振兴战略的有效衔接，确保与全国全省全市同步全面建成小康社会。', '值得一提的是，为进一步巩固脱贫攻坚成果，接续推动脱贫攻坚和乡村振兴两大战略有机衔接，持续发展壮大区域经济实体，统筹谋划安置区产业发展与群众就业创业，确保搬迁群众“搬得出、稳得住、能融入、逐步能致富”，加快全区易地扶贫搬迁安置区后续扶持产业发展建设，今年年初，乐都区副区长戴震乾、马元平一行8人前往陕西省安康市汉滨区考察学习易地扶贫搬迁后续产业发展的成功经验和先进做法，赴重庆市梁平区考察学习农村饮水安全运行管理的先进举措和管理模式，形成了适合乐都脱贫攻坚后续产业发展的新思路：借鉴安康“园区总部+新社区工厂+家庭工坊”的模式，发展毛绒玩具产业，将产业搬到移民搬迁安置社区，将岗位送到群众家门口，达到“以就业促搬迁，以就业稳搬迁”的目的；借鉴梁平模式，结合乐都区农村供水工程现状，提出在“十四五”期间逐步完成对大石滩水库、黄河滩水库、扎子寺水库、李家水库等水源稳定、水量保证的水源地修建水厂进行提质增效，进一步改善民生饮用水。对已建成的洪水水厂和高庙水厂所覆盖的用水户计量设施全部重新更换IC卡智能水表，实行计量收费，建立收费网络平台，用户可通过固定收费大厅现金缴费、微信支付、网银缴费等方式缴纳，方便群众。对于小型集中供水的村社可考虑通过“一事一议”原则，确定水厂用地、建后管理、水费收缴等事宜后，独立修建小型水厂，由村民委员会自主管理，达到节约用水、安全饮水的目的。充分发挥“三个责任人”的功能，即地方政府的主体责任、水行政主管部门的行业监管责任、供水管理单位的运行管理责任，落实“三项制度”，即农村饮水工程运行管理机构、农村饮水工程运行管理办法、农村饮水工程运行管理经费，坚持“重建设、强管理、抓收费”三措并举，巩固提升农村饮水安全保障水平……', '值得一提的是，为进一步巩固脱贫攻坚成果，接续推动脱贫攻坚和乡村振兴两大战略有机衔接，持续发展壮大区域经济实体，统筹谋划安置区产业发展与群众就业创业，确保搬迁群众', '人前往陕西省安康市汉滨区考察学习易地扶贫搬迁后续产业发展的成功经验和先进做法，赴重庆市梁平区考察学习农村饮水安全运行管理的先进举措和管理模式，形成了适合乐都脱贫攻坚后续产业发展的新思路：借鉴安康“园区总部', '家庭工坊”的模式，发展毛绒玩具产业，将产业搬到移民搬迁安置社区，将岗位送到群众家门口，达到“以就业促搬迁，以就业稳搬迁”的目的；借鉴梁平模式，结合乐都区农村供水工程现状，提出在“十四五”期间逐步完成对大石滩水库、黄河滩水库、扎子寺水库、李家水库等水源稳定、水量保证的水源地修建水厂进行提质增效，进一步改善民生饮用水。对已建成的洪水水厂和高庙水厂所覆盖的用水户计量设施全部重新更换', '卡智能水表，实行计量收费，建立收费网络平台，用户可通过固定收费大厅现金缴费、微信支付、网银缴费等方式缴纳，方便群众。对于小型集中供水的村社可考虑通过“一事一议”原则，确定水厂用地、建后管理、水费收缴等事宜后，独立修建小型水厂，由村民委员会自主管理，达到节约用水、安全饮水的目的。充分发挥“三个责任人”的功能，即地方政府的主体责任、水行政主管部门的行业监管责任、供水管理单位的运行管理责任，落实“三项制度”，即农村饮水工程运行管理机构、农村饮水工程运行管理办法、农村饮水工程运行管理经费，坚持“重建设、强管理、抓收费”三措并举，巩固提升农村饮水安全保障水平……', '马元平说，后续一系列长效稳定机制、方案正在酝酿中，目的就是要提高脱贫奔小康的质量、成色。这些不单针对农村相对困难群众，还针对一些弱势群体。他说，建立健全一个长效稳定的机制，也是为乡村振兴打下一个坚实的基础。', '雄关漫道真如铁，而今迈步从头越。如今，乐都决战决胜脱贫攻坚已圆满收官，成绩亮眼。而巩固脱贫攻坚成果的行动一刻也不懈怠。全面落实农村相对困难群众长效稳定脱贫机制攻坚战也已在河湟大地打响，乡村振兴的号角已经吹响，乐都区人民斗志昂扬开启新征程，豪情满怀迈进全面小康。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>288</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>同饮黄河水共谱发展路临夏党政代表团来海东考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/93447.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['日，甘肃省临夏回族自治州州委书记郭鹤立率领临夏党政代表团来我市考察学习。代表团先后来到乐都区三河湾湿地公园、朝阳山公园、地下综合管廊及平安区平安驿·河湟民俗文化体验地等实地考察学习，并召开两地区域合作座谈会。市委书记王林虎参加会议，市委副书记、市长王华杰参加有关活动。', '王林虎对临夏州党政代表团来海东考察表示欢迎。他说，建设兰西城市群是习近平总书记和党中央交给我们的重大政治任务，也是两市州发展面临的难得历史机遇。临夏州党政代表团到海东指导工作，是深入实施区域经济发展战略，积极构建兰西城市群的重要举措，充分体现了临夏州全面落实《兰州—西宁城市群发展规划》的行动自觉和思想自觉，必将开启两地务实合作的崭新局面。', '王林虎对临夏州党政代表团来海东考察表示欢迎。他说，建设兰西城市群是习近平总书记和党中央交给我们的重大政治任务，也是两市州发展面临的难得历史机遇。临夏州党政代表团到海东指导工作，是深入实施区域经济发展战略，积极构建兰西城市群的重要举措，充分体现了临夏州全面落实《兰州', '王林虎表示，海东与临夏同宗共源，要一道交流交融。两地山缘相接、水缘相连、路缘相通、文缘相融、人缘相亲，历来就是好邻居、好兄弟。长期以来建立了良好的交流合作、互帮互助的亲密关系。两市州合作是大趋势，也是推动发展的必要路径。海东与临夏同向共频，要一道成长发展。临夏经济社会发展全面步入快车道，呈现出了高质量发展的强劲态势；海东综合实力不断攀升，全市经济社会发展取得显著成绩。站在新起点上，两地需要深入合作，在高质量发展中携手并进、勇毅前行。海东与临夏同生共长，要一道互利互补。作为兰西城市群的重要节点城市，临夏和海东共同承担着黄河流域生态保护和高质量发展的历史重任，此次合作协议的签订，为两市州充分发挥各自优势，拓展交流合作搭建了良好平台，必将实现两地资源共享、优势互补、互利共赢、共同发展。海东与临夏同舟共济，要一道携手前行。两地共享西部大开发形成新格局、兰西城市群建设、乡村振兴等一系列利好政策，要认真贯彻甘青两省签署的推进兰西城市群高质量发展合作框架协议，落实好此次签订的八个专项行动计划协议，共同推动两地合作取得丰硕成果。海东将持续唱响“彩陶故里·拉面之乡·青绣之源·醉美海东”四张金色名片，以建设“五个新海东”为目标，努力建设青藏高原山水田园、生态绿色、宜业宜居、城乡统筹的社会主义现代化新海东。', '王林虎表示，海东与临夏同宗共源，要一道交流交融。两地山缘相接、水缘相连、路缘相通、文缘相融、人缘相亲，历来就是好邻居、好兄弟。长期以来建立了良好的交流合作、互帮互助的亲密关系。两市州合作是大趋势，也是推动发展的必要路径。海东与临夏同向共频，要一道成长发展。临夏经济社会发展全面步入快车道，呈现出了高质量发展的强劲态势；海东综合实力不断攀升，全市经济社会发展取得显著成绩。站在新起点上，两地需要深入合作，在高质量发展中携手并进、勇毅前行。海东与临夏同生共长，要一道互利互补。作为兰西城市群的重要节点城市，临夏和海东共同承担着黄河流域生态保护和高质量发展的历史重任，此次合作协议的签订，为两市州充分发挥各自优势，拓展交流合作搭建了良好平台，必将实现两地资源共享、优势互补、互利共赢、共同发展。海东与临夏同舟共济，要一道携手前行。两地共享西部大开发形成新格局、兰西城市群建设、乡村振兴等一系列利好政策，要认真贯彻甘青两省签署的推进兰西城市群高质量发展合作框架协议，落实好此次签订的八个专项行动计划协议，共同推动两地合作取得丰硕成果。海东将持续唱响', '郭鹤立说，到海东考察学习，主要是认真贯彻落实习近平总书记关于推进兰西城市群建设的重要讲话和指示精神，落实甘肃、青海两省深化甘青合作推进兰西城市群高质量发展工作会议部署要求，以实际行动推动海东市和临夏州两地合作迈上新的台阶。', '郭鹤立表示，海东、临夏两地山水相依、地缘相近、人文相通，是守望相助、并肩发展的好邻居、好朋友、好兄弟。希望两市州站在新的历史起点上，抓住兰西城市群建设的重大机遇，按照两地签订的合作框架协议和县市部门签订的专项行动计划，加强基础设施互联互通、重点产业对接协作、水利工程合作共建、旅游开发深度融合、生态保护联防联控、毗邻县区交流合作，将临夏和海东打造成全国省际民族团结进步示范区、省际推进黄河流域生态保护和高质量发展典范区、兰西城市群重要的少数民族特需用品生产区、省际高原文化旅游引领区、“一带一路”关键节点地区开放合作样板区。', '郭鹤立表示，海东、临夏两地山水相依、地缘相近、人文相通，是守望相助、并肩发展的好邻居、好朋友、好兄弟。希望两市州站在新的历史起点上，抓住兰西城市群建设的重大机遇，按照两地签订的合作框架协议和县市部门签订的专项行动计划，加强基础设施互联互通、重点产业对接协作、水利工程合作共建、旅游开发深度融合、生态保护联防联控、毗邻县区交流合作，将临夏和海东打造成全国省际民族团结进步示范区、省际推进黄河流域生态保护和高质量发展典范区、兰西城市群重要的少数民族特需用品生产区、省际高原文化旅游引领区、', '座谈会上，临夏州委副书记、州长马相忠，海东市政府副市长马杰分别介绍了两市州经济社会发展情况和框架协议合作事宜。两市州发展改革委、交通运输局、生态环境局、文体旅游广电局，永靖县与民和回族土族自治县，临夏县与循化撒拉族自治县，积石山保安族东乡族撒拉族自治县与循化县、民和县签订了专项行动计划协议。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>288</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>乐都区用双手托起城市文明梦</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/41/90315.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['走进河湟大地，漫步乐都街头，一幅彰显文明城市的画卷正在绘就。宽阔平坦的柏油马路，随处可见的公益广告，焕然一新的老旧小区，健全完善的娱乐设施，公共场所的文明行为……这座城市的改变让人们看到了“众志成城，敢教日月换新天”的新时代内涵。', '走进河湟大地，漫步乐都街头，一幅彰显文明城市的画卷正在绘就。宽阔平坦的柏油马路，随处可见的公益广告，焕然一新的老旧小区，健全完善的娱乐设施，公共场所的文明行为', '从上到下，从老到幼，从干部到群众，从城市到乡村，乐都区人民正用双手托起一座城市的“文明梦”。', '在创建全国文明城市中，乐都区坚持目标导向、问题导向、结果导向，在“精细化管理”上下功夫，在“常态化推进”中求实效，严格对标对表全国文明城市测评体系找问题、找短板。细化目标任务，明确责任主体，形成一级抓一级、层层抓落实的工作推进机制。根据《实地考查场所测评标准及要求》和《测评体系乐都区工作任务分解表》，对乐都区26类、175处考察点位展开拉网式督导检查，针对督查梳理出的109条问题与12个重点单位、1个乡镇签订问题整改交办单，压实责任，限期整改。', '同时，乐都区组织51名创城工作人员，赴江苏省无锡市惠山区进行创城工作专题培训和考察学习，通过对创建全国文明城市重点、难点、亮点经验知识总结学习，进一步深化创城理念、理清创城思路、优化创城措施。结合省级卫生城市创建工作，对桥南片区、桥北片区、朝阳山片区创城创卫工作及交办问题整改情况进行督导检查，建立新的问题清单，立行立改，圆满通过省级卫生城市评估验收。', '名创城工作人员，赴江苏省无锡市惠山区进行创城工作专题培训和考察学习，通过对创建全国文明城市重点、难点、亮点经验知识总结学习，进一步深化创城理念、理清创城思路、优化创城措施。结合省级卫生城市创建工作，对桥南片区、桥北片区、朝阳山片区创城创卫工作及交办问题整改情况进行督导检查，建立新的问题清单，立行立改，圆满通过省级卫生城市评估验收。', '“一城文明风，满目和谐情”“人人积德行善，个个收获吉祥”“文明礼让，平安是福”……行走在乐都区的大街小巷，驻足在广场公园和公交车站，细看沿街商铺和窗口行业，一幅幅公益广告，犹如一股股清风扑面而来。', '这些色彩亮丽、图文并茂、形式多样的公益广告，以“社会主义核心价值观”“讲文明树新风”“创建全国文明城市”等为主题，营造了浓厚的创城舆论氛围。', '“我们会定期检查围挡广告，对存在破损、字迹缺失等问题的广告及时更换，这既是对企业形象的维护，也是为文明城市创建营造氛围，创建全国文明城市我们都是参与者。”乐都区龙祥新城工地项目负责人说。', '为提高民众知晓率和参与度，乐都区充分利用“乐都宣传”“文明乐都”“人文乐都”微信公众号和抖音号，大力宣传“文明乐都 你我共创”“文明健康 有你有我”等活动内容，开设“漫话创城”专版专栏，将创城知识、市民公约等以漫画的形式进行宣传。组织乐都区3854名单位职工对26408户居民、7655户易地搬迁点居民开展入户宣传活动，让创城理念更加深入民心。组织单位、社区276名文明劝导志愿者，在交通路口开展交通文明劝导活动，增强广大市民的交通安全意识、文明意识。同时，加强对不文明行为的监督，建立曝光台对公共区域不文明行为以视频形式在区级媒体进行曝光。牢固树立广大市民主人翁意识，主动参与城市管理，推动全区形成“共创文明城市、共建美好家园”的浓厚创建氛围，并自觉付诸行动。', '名文明劝导志愿者，在交通路口开展交通文明劝导活动，增强广大市民的交通安全意识、文明意识。同时，加强对不文明行为的监督，建立曝光台对公共区域不文明行为以视频形式在区级媒体进行曝光。牢固树立广大市民主人翁意识，主动参与城市管理，推动全区形成“共创文明城市、共建美好家园”的浓厚创建氛围，并自觉付诸行动。', '“做文明人，行文明事”的理念早已成为乐都广大群众的共识，全民参与创建的热情与日俱增。从自觉遵守“红灯停、绿灯行”的孩童，到自发组织成立小区文明志愿巡逻队的耄耋老人；从烈日下汗流浃背的交警，到寒风中坚守岗位的志愿者；从第一缕阳光下清理垃圾的环卫工，到霓虹灯下依旧忙碌的公交车司机……', '“过去，大家办喜事相互攀比，规模越来越大，烟酒档次越来越高，很多村民多年来辛辛苦苦挖虫草、干农活挣来的钱，一下子就‘摆酒摆烟摆穷了’。现在好了，村里成立了红白理事会，大家节俭着办红白事，既简单，还减轻了经济负担，形成了好风气。”雨润镇汉庄村村民王大爷感慨道。', '说起这几年的变化，王大爷看在眼里记在心里，他告诉记者，这几年，村里的红白事和以前不一样了，结婚请乐队唱歌跳舞、宴席上铺张浪费的少了，白事吹喇叭、奏乐的也少了。以前没事儿村民们爱凑一块儿打麻将、打扑克，现在也改成跳广场舞了，如今大家的生活更加充实了，村民们的精气神也越来越足了，真是“简”了开销，“淳”了乡风。', '说起这几年的变化，王大爷看在眼里记在心里，他告诉记者，这几年，村里的红白事和以前不一样了，结婚请乐队唱歌跳舞、宴席上铺张浪费的少了，白事吹喇叭、奏乐的也少了。以前没事儿村民们爱凑一块儿打麻将、打扑克，现在也改成跳广场舞了，如今大家的生活更加充实了，村民们的精气神也越来越足了，真是', '如今，乐都区以新时代文明实践为抓手，常态化开展“我们的节日”“戏曲进乡村”“文艺轻骑兵”等各类活动600余场。在广场、商场等人群密集场所设置移风易俗宣传栏，张贴有关移风易俗方面的标语。积极开展《海东市移风易俗促进条例》宣传活动，编排小品《移风易俗靠大家》、贤孝《赞乐都》、眉户戏《还账》、移风易俗花儿演唱，引导广大群众尊良俗、去低俗，“新时代文明新风”思想深入人心。持续深化文明单位、文明村镇、文明校园、文明家庭等精神文明创建活动，深入开展“中国好人”“五星级文明户”“五个十佳”“最美乐都人”“十大能人”等创评活动，积极开展爱国卫生运动、文明餐桌、公筷公勺、文明旅游等全民实践活动，推动移风易俗、村规民约、家训家风良好传承。', '余场。在广场、商场等人群密集场所设置移风易俗宣传栏，张贴有关移风易俗方面的标语。积极开展《海东市移风易俗促进条例》宣传活动，编排小品《移风易俗靠大家》、贤孝《赞乐都》、眉户戏《还账》、移风易俗花儿演唱，引导广大群众尊良俗、去低俗，“新时代文明新风”思想深入人心。持续深化文明单位、文明村镇、文明校园、文明家庭等精神文明创建活动，深入开展“中国好人”“五星级文明户”“五个十佳”“最美乐都人”“十大能人”等创评活动，积极开展爱国卫生运动、文明餐桌、公筷公勺、文明旅游等全民实践活动，推动移风易俗、村规民约、家训家风良好传承。', '截至目前，乐都区组建志愿服务总队1支，志愿服务队8支，建成新时代文明实践所19个，实践站59个，志愿者人数达5392人，受众人数达5.9万人次。在公共场所、窗口单位和社区按照“六有标准”建立志愿服务站（岗），为群众提供便民利民志愿服务。', '万人次。在公共场所、窗口单位和社区按照“六有标准”建立志愿服务站（岗），为群众提供便民利民志愿服务。', '“街道变平变干净了，小区环境也更好了，老城区改造效果明显，市容市貌大变样……现在，咱们乐都的环境越来越美，越来越宜居啦！”家住苗圃小区的王女士说。这是王女士对创建全国文明城市乐都区工作成果最中肯的评价。', '如果把城市比作一棵大树，那么创建文明城市的过程，就是给大树祛病修枝的过程。乐都区举全区之力推进全国文明城市创建，针对创城过程中暴露出来的短板，充分利用有限时间精准施策、靶向治疗。', '近年来，乐都区以“创建文明城市”和“创建省级卫生城市”为抓手，按照既定任务目标和创城标准要求，集中力量开展市政维护管理、城市环境卫生治理、市容秩序整治等工作，全面排查梳理，补短板、强弱项、扫盲区，推动创城工作向纵深开展。', '紧扣民生实事，将疫情防控融入文明创建，上下联动做好公用设施灭菌消杀、人员摸排劝返、防疫卫生健康知识宣传等防控工作。积极补齐城市基础设施短板，深入开展无人楼院管理环境治理，粉刷陈旧楼道76个单元。集中规范填埋生活垃圾约47201.5吨、喷灌渗滤液5378方，清淤垃圾2000余立方米，清挖渠道1500余米，查处违规渣土运输车辆120辆。清理整治张贴、喷涂违法小广告共计2.3万处，粉刷大型广告及陈旧墙体920平方米，收缴“小广告”3万余份。张贴禁炮通告1500余份，制止违规燃放烟花爆竹行为100余起。取缔海力路临时市场，规范碧水源、向民路临时早夜市，整治占道经营800多起、倚门经营650家，查处流动商贩120个。建成海东市第一座环卫工人洗衣房，免费为500余名环卫工人定期提供清洗服务。完成国土绿化21.66万亩，城市园林养护55万平方米，改建农户卫生厕所共1141座。全力打造“路畅、树绿、街净、水清、城美”的城市环境，让城区旧貌换新颜。', '紧扣民生实事，将疫情防控融入文明创建，上下联动做好公用设施灭菌消杀、人员摸排劝返、防疫卫生健康知识宣传等防控工作。积极补齐城市基础设施短板，深入开展无人楼院管理环境治理，粉刷陈旧楼道', '乐都区还利用重要活动和重大节庆日等契机，开展网上祭英烈、向抗“疫”英雄致敬等活动和“优秀道德小公民”“高原好少年”“美德少年”等道德模范评选、表彰和学习宣传活动，使教育全方位融入未成年人的生活，推进学校、家庭、社会“三结合”教育网络，努力挖掘、总结、提升未成年人思想道德建设工作的新经验、新案例。引导未成年人树立守法光荣、违法可耻的观念，增强运用法律武器维护自己权益的能力。持续推进乡村学校少年宫项目以及县级青少年活动中心、示范性综合实践基地等青少年校外活动场所建设。截至目前，乐都区19个乡镇中17个乡镇村少年宫已覆盖，覆盖率达89.5%，受益学生率达50.8%。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>288</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>海东市与扬州市食药监局签订食品药品安全综合监管对口共建协议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2015-07-23</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/34/54336.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为促进海东、扬州两地食品药品安全监管工作，更好地保障公众饮食用药安全，经海东市食品药品监督管理局与扬州市食品药品监督管理局积极沟通协调，按照“对口帮扶、资源共享、相互合作、共同提高”的原则，双方就两地对口共建帮扶相关事宜达成一致意见。7月15日，扬州市食药监局平志明局长一行9人到海东考察学习，与海东市食药监局签订了对口帮扶协议。 根据协议，扬州市局将协助海东市局开展专业人员培训、加强食品药品检验检测能力与执法装备建设，帮助海东市促进行政执法与检验检测规范化、制度化、科学化。结合海东市食药监管工作实际，选派食品药品检验检测专业人员到海东市进行技术指导。通过示范带教、操作指导、专题研讨、短期培训等多种方式，提高海东食品药品检验检测人员综合技能。同等条件下，优先安排海东市局选送的行政监督与技术监督人员到扬州进修学习，做好海东市食药监管技术人员进修学习期间的带教与保障工作。应海东市食药监局邀请，协助海东市解决检验检测、认证检查等方面存在的问题，提供相应的帮助与支持。海东市将主动配合开展各项共建帮扶工作，妥善安排扬州市食药监局派驻人员的生活和工作。同时，结合海东实际，做好扬州食品药品企业在海东发展的服务工作，为企业发展提供恰当的便利条件。 对口共建协议的签订，将进一步优化资源，通过相互合作，配合支持，实现资源共享。通过扬州市食药监局的帮扶支持，将有力促进海东市食品质量认证和药品复评审以及食品药品检验检测工作水平。对建立完善海东“监、检”相结合的行政执法监督机制和食品药品执法队伍建设具有积极促进作用。', '根据协议，扬州市局将协助海东市局开展专业人员培训、加强食品药品检验检测能力与执法装备建设，帮助海东市促进行政执法与检验检测规范化、制度化、科学化。结合海东市食药监管工作实际，选派食品药品检验检测专业人员到海东市进行技术指导。通过示范带教、操作指导、专题研讨、短期培训等多种方式，提高海东食品药品检验检测人员综合技能。同等条件下，优先安排海东市局选送的行政监督与技术监督人员到扬州进修学习，做好海东市食药监管技术人员进修学习期间的带教与保障工作。应海东市食药监局邀请，协助海东市解决检验检测、认证检查等方面存在的问题，提供相应的帮助与支持。海东市将主动配合开展各项共建帮扶工作，妥善安排扬州市食药监局派驻人员的生活和工作。同时，结合海东实际，做好扬州食品药品企业在海东发展的服务工作，为企业发展提供恰当的便利条件。 对口共建协议的签订，将进一步优化资源，通过相互合作，配合支持，实现资源共享。通过扬州市食药监局的帮扶支持，将有力促进海东市食品质量认证和药品复评审以及食品药品检验检测工作水平。对建立完善海东“监、检”相结合的行政执法监督机制和食品药品执法队伍建设具有积极促进作用。', '对口共建协议的签订，将进一步优化资源，通过相互合作，配合支持，实现资源共享。通过扬州市食药监局的帮扶支持，将有力促进海东市食品质量认证和药品复评审以及食品药品检验检测工作水平。对建立完善海东“监、检”相结合的行政执法监督机制和食品药品执法队伍建设具有积极促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>288</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>关于强推富硒产业发展的建议</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018-08-13</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/383/69568.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2010年，初次探明平安区富硒土壤面积达到600多平方公里，硒含量一般0.23～5.179mg/kg,平均0.44 mg/kg，高于全国土壤背景值，接近于已开发利用的浙江瑞安、上虞、江西丰城富硒土壤含量水平，达到足硒或中等富硒的水平，并且具有富硒面积大、地层较厚、硒含量浓度适中、无伴生有害元素等特点。这是继湖北恩施、江西丰城等地后，又一稀有的富硒土壤集中区。2015年—2017年分别在第三届、四届中国生态产业高峰论坛上荣获“中国十大富硒之乡”美誉，并被评为中国富硒农业产业技术创新联盟副理事长单位。', '按照“两年强基础、三年显雏形、五年成园区”的发展思路，着力打造“高原硒都·健康平安”区域品牌，依托国家级农业示范园区建设，大力发展富硒产业，着力打造省、市级富硒产业园，努力推出“高原、富硒、绿色、有机”产品品牌。', '1.市政府及相关部门大力支持平安富硒产业，把平安富硒产业发展纳入市级发展战略层面，明确目标任务，制定富硒产业发展战略规划和相关政策。', '2.建议市政府给予富硒产业发展专项基金，重点支持硒资源研究、硒资源勘查、富硒标准化生产基地建设、富硒产品加工、品牌培育等。', '2010年青海省第五地质矿产勘查院在海东地区共发现840平方公里的富硒土壤资源，是青海省最大的天然富硒区域，也是中国第四大富硒区域，更是全国唯一的高原富硒区。海东市于2010年提出打造富硒产业，通过深挖富硒资源价值，打造青藏高原农业富硒特色独有品牌，并提出了富硒农业发展概念和思路，经过5年时间发展，海东市富硒产业在各级政府和农业主管部门的大力支持下呈现良好发展态势，为全市现代农业发展提供了有力的科技支撑和样板示范。', '截止2017年末，富硒产业园已完成建设总面积32万亩，涉及海东市平安、乐都区四镇三乡73个村，总人口59365人。产业园初步形成了布局科学合理，生产、加工、物流、研发、示范、服务等功能完善的态势，并拥有科研院所、技术中心及农技推广部门等科研机构省级1家、市级1家、区级2家，并形成以富硒紫皮大蒜、牛羊为主导的特色农业，以农畜产品为龙头的精深加工业和以休闲采摘为核心的乡村旅游观光业。产业园现有企业30家、农民专业合作社318家，种养大户50户，产业园年总产值达到20.60亿元(人均产值达到3.47万元),其中富硒大蒜产业、牛羊肉产业产值10.33亿元，占总产值的50.15%。', '富硒产业园农畜产品发展，主打“绿色牌”、“高原牌”和“富硒牌”，并形成了一批具有一定规模和知名度的农产品品牌。2017年底，认定无公害农产品基地10个（其中无公害蔬菜种植基地1个，产地规模184.7hm2，无公害畜禽养殖基地9个，产地规模9.2万头只），认证无公害农产品28个（其中种植业产品12个，养殖业产品16个），认证绿色食品1个，认证绿色食品生产资料1个，有效认证“紫皮大蒜”、“乐都长辣椒”、“乐都大樱桃”、“乐都绿萝卜”四大农产品地理标志产品，尤其是紫皮大蒜已经获得“国家地理标志证明商标”，并被评为“消费者最喜爱的100个中国农产品区域公用品牌”，成为名副其实的国家级品牌农产品。', '为充分挖掘和高效利用我市硒资源，进一步做大做强富硒产业，促进我市产业园产业融合发展，引领农业供给侧结构性改革，培育壮大产业园内龙头企业，提高综合生产能力，带动农民致富增收，繁荣发展农村', '，打造我市产业新特色、新优势；编撰了《青海海东高原现代农业富硒产业园总体规划(2016-2020)》、《青海海东市国家农村产业融合发展富硒示范园创建方案》、《海东市创建富硒产业一、二、三产业融合发展产业园的方案》等，明确了富硒产业园发展思路、发展目标，全力打造好富硒产业园。同时根据海东市人民政府办公室《关于成立青海海东高原现代农业富硒产业园领导小组的通知》，成立了由市政府副市长为组长，市政府副秘书长、市农牧局局长为副组长，各相关职能部门为成员的青海海东高原现代农业富硒产业园建设领导小组，负责青海海东高原现代农业富硒产业园的组织、领导和协调工作，指导制定青海海东高原现代农业富硒产业园建设总体规划，研究制定推进青海海东高原现代农业富硒产业园建设的优惠政策，负责青海海东高原现代农业富硒产业园重大事项决策，协调和解决青海海东高原现代农业富硒产业园建设过程中遇到的困难和问题，统筹安排青海海东高原现代农业富硒产业园建设专项资金和物资等各项工作。确保青海海东高原现代农业富硒产业园建设顺利实施。', '富硒资源及产品的开发、生产、加工是我市高原现代农业园区的核心板块，在园区示范带动下，资源优势已转化为产业优势，富硒产业成为', '主导产业之一。2017年，我委积极组织申报省级及国家及产业园，全力打造“富硒牌”。', '按照省农牧厅《关于开展第一批省级现代农牧业产业园申报认定工作的通知》精神，我委积极申报海东富硒农业产业园为省级现代农牧业产业园；2018年5月14日，青海省人民政府办公厅下发了《关于认定第一批省级现代农业产业园的通知》（青政办〔2018〕81号），认定海东富硒农业产业园为省级现代农牧业产业园。', '按照省农牧厅《关于开展第一批省级现代农牧业产业园申报认定工作的通知》精神，我委积极申报海东富硒农业产业园为省级现代农牧业产业园；', '根据农业部、财政部《关于开展国家现代农业产业园创建工作的通知》（农计发〔2017〕40号）的要求和省领导的指示精神，2017年、2018年连续两年市政府组织申报了青海海东高原现代农业富硒产业园为国家级的现代农业产业园；因多方原因未申报成功。', '按照国家发展改革委、农业部、工业和信息化部、省财政部、自然资源部、商务部、国家旅游局《关于印发国家农村产业融合发展示范园创建工作方案的通知》（发改农经〔2017〕1451号）精神；2017年，我委以“围绕农业提质增效和农民就业增收，探索突破一、二、三产业融合互动瓶颈的新模式，纵向延伸和横向拓展农业产业链条和功能，打造产业链延伸型农村产业融合发展示范园”为目标，申报了青海海东高原现代农业富硒产业园为国家农村产业融合发展示范园创建单位。', '按照国家发展改革委、农业部、工业和信息化部、省财政部、自然资源部、商务部、国家旅游局《关于印发国家农村产业融合发展示范园创建工作方案的通知》（发改农经〔', '2017年以来，富硒产业园争取省级财政补助资金，以品牌建设为重点，加大建设力度，促进了产业园的发展。', '投资120万元，实施了《青海海东高原现代农业富硒产业园建设省级补助项目》，完成了新品种新技术试验示范、富硒产品溯源追溯平台建设、富硒产品品牌宣传的前期招投标工作；引进富硒大蒜新品种1个，新技术1项，在乐都园区进行试验示范；开发富硒产品溯源追溯体系软件一个、富硒产品溯源追溯平台服务器一套、富硒产品溯源追溯云数据库（SQL）一套、富硒产品溯源追溯文件云存储一套；组织市县（区）20名专业技术人员到湖北恩施考察学习富硒产业发展思路及模式；打造品牌，引导企业树立做大做强品牌的意识，加大富硒农产品品牌宣传力度，全力打造好富硒产业园。', '投资100万元，实施了《青海海东高原现代农业富硒产业园建设奖补项目》，目前已完成项目实施方案编制工作，项目建设将进一步加大富硒农产品品牌建设，全力打造好“河湟硒谷”等农牧特色产业品牌，引导企业树立做大做强品牌的意识，加大富硒农产品品牌宣传力度，提高我市富硒农畜产品和富硒品牌企业知名度，增强农产品市场竞争力，凸显品牌效益。按照“政府引导、企业主体、市场运作、重点推介”的方式，在全市遴选一批品质优、价值高、市场广的富硒品牌农产品，在全国探索品牌农产品新路径，促进一、二、三产业融合发展，帮助我市富硒品牌农产品提升市场份额，促进农民增收。', '协调省农牧厅今年安排资金1000万元，一方面继续申报青海海东高原现代农业富硒产业园为国家级的现代农业产业园，另一方面，结合《规划》内容，按照“缺啥补啥”的原则，实施《省委、省政府确定的重点工作支撑项目》，目前正在编制项目实施方案。', '最后，再次感谢您对海东市农业发展委员会及“三农”工作的支持、关注和监督，我们在市委、市政府的领导下，将进一步做好我市现代农业富硒产业园的各项工作，为东部农业区现代农业发展打造典型示范。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>288</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>海东市房管干部集体充电</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2015-05-22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/273/48051.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['近日，海东市各县（区）房产局（住建局）主管局长及负责房地产管理、房地产信息系统的管理者30余人在西宁市住房保障和房地产管理局进行了为期一天的学习交流，使海东市房地产管理及业务人员受到了一次高质量的系统化学习。', '今后，海东市城乡规划建设局还将组织各县（区）房地产（住建）行政主管部门人员分批分期到省外进行学习考察，以提高我市房地产（住建）行政主管部门人员业务水平和房地产市场监管能力。据介绍，全省共有房地产开发企业600余家，而海东市房地产开发企业就有100多家。2014年，海东市完成地区生产总值377.7亿元，其中房地产开发投资46.46亿元，同比增长21.11%，占全社会固定资产投资总额的9.1%。房地产开发建设对全市经济增长拉动作用明显，成为海东市的支柱性产业。', '受训人员纷纷表示，通过这次学习交流会，既学到了房地产市场监管方面的知识，又实际查看交流了房地产信息系统网上办理业务流程，提高了业务水平。今后，将继续认真学习和借鉴西宁市的先进经验和做法，努力在海东市房地产市场监管工作上有新突破、新提高，进一步推进海东市房地产市场监管工作再上新水平。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>288</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市工业和信息化委海东市三措并举稳步推进年青洽会签约项目任务落地</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017-09-06</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/513/60396.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['今年以来，海东市深入贯彻落实“四个扎扎实实”重大要求，全力推进“四个转变”，通过狠抓招商引资项目前期对接、组织领导和优化环境等措施，确保2017年“青洽会”签约项目顺利推进。截至目前，海东市政府2017年“青洽会”牵头签约项目共38项，总投资152.02亿元，现已提前4个月完成省政府确定的目标任务，项目履约率达100%，较目标任务高出30个百分点；已开工27项，开工率71%，较目标任务高出21个百分点；到位资金23.14亿元，资金到位率15.22%，较目标任务高出0.22个百分点，“三率”完成情况为历年同期最好。', '一、狠抓前期对接。在“青洽会”召开之前，市委、市政府主要领导积极开展“领衔招商”，带领相关部门负责人赴北京、上海、广东、深圳等地开展学习考察和招商引资活动，围绕基础设施建设、商贸物流、大数据信息化等重点产业，先后实地考察当地产业园区和重点企业，分别与深农集团、中建五局、碧桂园集团、红星美凯龙集团等企业领导会晤，商讨进一步合作事宜。六县（区）和海东工业园区积极开展“小分队”招商活动，积极开展项目推介。', '二、狠抓组织领导。实行“一把手”负责制，切实把招商引资作为推进发展、调整结构、转型升级的战略任务，形成主要领导带头，分管领导和项目责任人分工负责、齐抓共管的招商引资工作局面。对各签约项目明确牵头领导、责任单位、责任人，及时掌握情况，做好重大项目的衔接和协调工作，狠抓项目落实。要求市、县（区）各相关部门进一步明确每个项目的阶段目标、形象进度、工作要求、领导责任等，倒排时间表，形成了全市上下“领导干部带头、专业队伍主攻、全员力量参与”的招商引资大格局。', '三、优化投资环境。准确理解并贯彻落实国家及省上出台的支持产业发展的政策措施并做好宣传工作，杜绝政策效应递减。对全市经济带动大、具有支撑作用且符合循环经济发展要求的重大项目，灵活运用“一企一策、一事一议”的办法确保落地。严格落实首问负责制、限时办结制、服务承诺制等制度，推进签约项目按计划开工建设，确保每个落地项目享受到持续优质的服务，重点在项目环评、安评、贷款融资及其他要素配置方面为企业排忧解难，做到“门好进”“脸好看”“事好办”，通过优质的服务营造“亲商、安商、富商”的投资环境。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>288</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>关于加大电商扶贫扶持力度的提案</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/383/69632.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['通过加强组织领导、强化工作措施、加大宣传力度，电商试点工作稳步推进，为全市层面推行电商扶贫工作探索了路子、积累了经验。', '目前，全市累计建成54个乡镇电子商务服务站、639个村级电子商务服务点、12个社区服务站，有效拓宽了全市贫困地区农畜产品销售渠道，增加了贫困户收入。以工作领先的民和县为例，', '全县累计建成22个乡镇电商服务站、136个村级电商服务站，完成“工业品下乡”订单总数36万单、网上交易总额6000万元；全县马铃薯、蜂蜜等20余种农特产品通过线上线下销售约1017万元，电商在农民增收、农业增效、脱贫攻坚中发挥了一些作用。但是，由于电商扶贫工作刚刚起步，还存在一些困难和问题。主要表现为：一是资金较为紧缺。由于县级财力有限，支持电商扶贫资金较少，国家电商进农村示范县专项资金有限，加之阿里巴巴下调淘宝合伙人佣金，致基层站点运行困难，多数村淘宝合伙人月收入在1000元左右，特别是偏远山村淘宝合伙人月收入在300-500元，部分淘宝合伙人已经退出去外地打工，部分处于徘徊观望，给电商扶贫带来很大困难；二是农特产品种类不多、规模不大，品牌标准低，竞争力不强，达到电商化产品标准难度较大，农特产品上行较难。三是电商专业人才紧缺，在电商扶贫实际工作中很难发挥有效作用。', '一是省、市各级部门加大资金争取力度，加强对县级电商扶贫工作的资金支持，县上通过出台奖励、补贴等办法，全力加大贫困村村淘合伙人支持力度，确保村级淘宝店铺正常运行，强力推进全市电商扶贫工作；二是相关部门加大对农牧、市场监管、文化旅游部门的支持力度，积极培育农副产品龙头企业，确保农副产品规模化、品牌化、标准化、电商化生产，加快溯源体系、供应链体系、冷链体系建设，健全完善农副产品QS、“三品一标”等认证，确保农副产品在电商销售中畅通无阻；积极开展“电商企业+贫困户”的模式，达到企业网上接订单，建档立卡贫困人口家门口搞生产，既解决企业招工难问题，又解决贫困对象就业难问题，实现企业、贫困对象“脱贫双赢”。三是各级部门加大电商专业人才培训工作，专门安排培训经费，积极对接电商发达地区，采取“走出去”、“请进来”等方式，全力加大贫困地区返乡大学生、农村创业青年电商知识培训工作，力争使各县区农村青年、返乡大学生成为电商扶贫工作生力军。同时，对贫困对象较多、发展电商意愿较浓的贫困村予以重点打造，着力改造成“电商村”或“淘宝村”。同时，加大对贫困劳动力的培训力度，借力电商培训，帮助贫困对象树立脱贫之志，掌握脱贫之技。', '一是省、市各级部门加大资金争取力度，加强对县级电商扶贫工作的资金支持，县上通过出台奖励、补贴等办法，全力加大贫困村村淘合伙人支持力度，确保村级淘宝店铺正常运行，强力推进全市电商扶贫工作；二是相关部门加大对农牧、市场监管、文化旅游部门的支持力度，积极培育农副产品龙头企业，确保农副产品规模化、品牌化、标准化、电商化生产，加快溯源体系、供应链体系、冷链体系建设，健全完善农副产品', '（一）积极争取试点项目。针对海东市、县（区）财政无电子商务发展专项资金的问题，始终把争取专项资金和项目支持作为一项重要举措，积极向省商务厅、商务部汇报工作，争取项目和专项资金支持。2015年申报争取互助县为第一批国家电子商务进农村综合示范县，争取项目资金2000万元；2016年申报争取民和县为第二批国家电子商务进农村综合示范县，争取项目资金1500万元；2017年申报争取循化县为第三批国家电子商务进农村综合示范县，争取项目资金1500万元；2018年申报争取平安区、乐都区为第四批国家电子商务进农村综合示范县，各争取项目资金1500万元。下一步市商务局继续争取将化隆县列为国家电子商务进农村综合示范县，实现我市六县（区）国家电子商务进农村综合示范县项目全覆盖。', '（一）积极争取试点项目。针对海东市、县（区）财政无电子商务发展专项资金的问题，始终把争取专项资金和项目支持作为一项重要举措，积极向省商务厅、商务部汇报工作，争取项目和专项资金支持。', '（二）争取电商各类项目资金。先后申报争取2018年青海省商贸流通服务业发展专项资金后补助项目，其中电商类项目2个，分别为青海兴农实业有限公司和青海恒强贸易有限公司，共争取落实支持资金230万元，用于发展电子商务物流配送服务体系建设以及市级电商基地建设，预计年实现130人就业，带动贫困户户均增收3000元，间接带动运输、商贸流通等行业的发展。后续还将积极向省商务厅申报流通服务业发展专项资金项目，持续为我市电商产业提供资金支持。全力以赴实施好5县（区）国家电子商务进农村综合示范县项目，着力推动特色农产品上行，培育电商企业和特色优势农产品品牌，建设物流体系，支持县域电商健康发展。', '（三）引导县（区）出台各类奖补措施。及时向各县（区）传递省、市最新电商政策，引导各县（区）出台切合工作实际的奖励、补贴办法，特别是在贫困村村淘合伙人的培训、电商企业孵化、打造众创团队等领域给予一定的支持，确保村级淘宝店正常运行，推动全市电商扶贫工程的有效实施。如民和县为入驻电商企业免费提供办公场所、电脑、宽带等设施，帮助新培育电商企业发展，协调电信等网络运营商，为村级服务点落实减免宽带费用50%等优惠政策，促进电商发展。', '（三）引导县（区）出台各类奖补措施。及时向各县（区）传递省、市最新电商政策，引导各县（区）出台切合工作实际的奖励、补贴办法，特别是在贫困村村淘合伙人的培训、电商企业孵化、打造众创团队等领域给予一定的支持，确保村级淘宝店正常运行，推动全市电商扶贫工程的有效实施。如民和县为入驻电商企业免费提供办公场所、电脑、宽带等设施，帮助新培育电商企业发展，协调电信等网络运营商，为村级服务点落实减免宽带费用', '（一）加强沟通，促进协作发展。市商务局与市邮政管理局对接，发挥各自职能优势，在互助县班彦新村建设村级电商服务点，打造盘绣、青稞酒等特色产业，引导电商与快递物流企业加强合作，加快电商与快递物流业协同发展。 （二）加强电商企业品牌培育。2018年，市商务局积极向省商务厅报送电商扶贫优秀、电商重点扶持农特产品品牌，从而加强我市特色农产品与国内知名电商平台的合作，加大品牌农产品的宣传推介力度，目前海东市已有10家企业的30余种特色品牌农产品得到了淘宝淘乡甜、乐村淘、一亩田、每日优鲜、百诚源等电商平台的认领，进一步促进了农副产品规模化、品牌化、标准化、电商化生产，健全完善了农副产品QS、三品一标等认证。', '（一）加强沟通，促进协作发展。市商务局与市邮政管理局对接，发挥各自职能优势，在互助县班彦新村建设村级电商服务点，打造盘绣、青稞酒等特色产业，引导电商与快递物流企业加强合作，加快电商与快递物流业协同发展。', '（三）发挥电商企业优势，推动精准扶贫。积极开展“电商企业+贫困户”模式，鼓励企业深入田间地头，深入建档立卡贫困户，解决贫困户农产品上行销售问题，同时也为贫困户提供就业机会。如民和县通过采取“公司+贫困户”、订单马铃薯等模式，推动特色农产品上行销售工作，效果明显，2017年仅新民乡若多贫困村通过电商销售马铃薯增收30万元。', '（四）大力拓展电子商务应用。积极引导，推进县、乡、村电子商务网点发挥作用，充分利用电商网络，加快农副产品销售和工业品下乡，促进农业增效、农民增收。今年上半年，全市电子商务交易额达到3103.21万元，其中上行（销售）948.37万元，下行（购进）2154.84万元。', '（四）大力拓展电子商务应用。积极引导，推进县、乡、村电子商务网点发挥作用，充分利用电商网络，加快农副产品销售和工业品下乡，促进农业增效、农民增收。今年上半年，全市电子商务交易额达到', '（一）在推进全市电子商务精准扶贫工程当中，市商务局始终把电子商务专业人员培训列为一项重要工作，采取各种方式对县、乡、村电子商务从业人员进行了培训，截至目前，全市举办电子商务各类培训班20余次，累计培训1000余人次。', '（一）在推进全市电子商务精准扶贫工程当中，市商务局始终把电子商务专业人员培训列为一项重要工作，采取各种方式对县、乡、村电子商务从业人员进行了培训，截至目前，全市举办电子商务各类培训班', '（二）采取“走出去、请进来”等方式，一方面邀请电商专业人员，持续加强对农村青年、返乡大学生等人群，特别是建档立卡贫困户农民的电商创业知识培训，使其掌握脱贫技能；另一方面组织市县商务系统电商工作人员、电商企业负责人主动走出去，进行考察学习，开阔眼界，学习先进经验和做法，2018年市、县（区）商务局工作人员先后赴宁夏回族自治区彭阳县、重庆市云阳县等地考察学习，增长见识，提升能力。', '（三）认真实施国家电子商务进农村综合示范县项目，加强项目资金使用管理，加大培训力度，组织举办更多省内外培训学习活动，提升从业人员工作能力，促进电商发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>288</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>海东党政代表团赴无锡学习考察无锡海东东西部协作第十一次联席会议召开</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/108543.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['日，市委书记乌拉孜别克·热苏力汗，市委副书记、市长王华杰率海东市党政代表团赴江苏省无锡市学习考察，全面贯彻落实党的二十大、全国两会精神，深入贯彻习近平总书记关于深化东西部协作和定点帮扶工作的重要指示精神，共同书写两地高水平协作新篇章。', '·海东东西部协作第十一次联席会议。乌拉孜别克·热苏力汗，无锡市委书记、市人大常委会主任杜小刚出席会议并讲话，并共同见证双方签署', '年度东西部协作协议和人才交流合作专项协议。与会人员观看了“千里同心山海情”专题片。', '·热苏力汗在讲话中对无锡市长期以来给予海东的帮助支持表示感谢。他说，近年来，无锡市始终坚持以习近平新时代中国特色社会主义思想为指引，以高度的政治责任感，给予海东真心真意的援助、真金白银的投入、真抓实干的帮扶，为海东经济社会发展倾注无锡力量、奉献无锡智慧、展现无锡情怀。实践证明，在对口协作这条无形纽带的联接下，“太湖情”“湟水意”亲和融合，无锡与海东协作发展的探索不断推进、模式不断成熟、成效不断显现，生动诠释了中国特色社会主义制度优势。对于无锡的帮助和奉献，海东将永远感恩于心、奋进于行。', '·热苏力汗表示，无锡作为经济大市、经济强市，是我们始终学习的榜样。海东将认真学习无锡经济社会高质量发展的先进经验、各级领导干部良好的工作作风、推进创新发展的思路理念，以贤为师、虚心学习，在全面建设社会主义现代化国家新征程和深化东西部协作发展新起点上，紧抓机遇、借力发展，持续巩固好来之不易的协作成果，扎扎实实做好高质量发展的“后半篇”文章。希望无锡一以贯之关心海东、帮助海东、支持海东，在深化东西部协作中，进一步深化拓展合作领域，丰富协作内容，健全帮扶机制，优化帮扶方式，用无锡创新发展的新理念、新思想，着力推动产业合作、消费帮扶、劳务协作、人才交流等工作，支持海东持续在经济发展、产业升级、科技创新、民生改善方面取得新成效，全力打造东西部协作的样板典范。', '杜小刚对海东市党政代表团的到来表示热烈欢迎，对海东各界长期以来给予无锡经济社会发展的关心支持表示衷心感谢。杜小刚说，海东是习近平总书记亲自视察、亲自关心过的地方。近年来，海东全市上下始终牢记习近平总书记的殷殷嘱托，认真落实党中央和青海省委、省政府的决策部署，真抓实干、埋头苦干，', '“山水田园”更添魅力、“生态绿色”更具品质、“宜业宜居”更加彰显、“创新活力”更有特色、“城乡统筹”更趋完善，经济社会发展取得一系列令人刮目相看的突破性进展、标志性成果。', '杜小刚表示，开展东西部协作，是以习近平同志为核心的党中央从全局高度作出的重大决策部署，是中国特色社会主义制度优越性的集中体现。自', '年建立对口协作关系以来，两市本着“同志加兄弟”的情谊，在人才交流、产业合作、劳务就业、消费协作等方面开展了大量富有成效的工作，助力海东夺取脱贫攻坚战的全面胜利。面向未来，无锡将坚决贯彻习近平总书记重要指示和党中央决策部署，认真落实苏青对口支援协作工作座谈会部署要求，坚持以“高质量东西部协作”赋能“高质量发展”，进一步推动产业互补、人员互动、技术互学、观念互通、作风互鉴，在完善协作机制中深化务实合作、在坚持各扬所长中实现互利共赢、在推动共同富裕中造福两市人民，在“争当中国式现代化建设的城市范例”进程中谱写“东锡协作”的新篇章，交出一份让党和人民满意的过硬答卷。', '在无锡期间，海东市党政代表团先后来到江苏省锡山高级中学、朗新科技公司、亚太航空科技有限公司、雪浪小镇等地考察学习。同日，海东市', '日，乌拉孜别克·热苏力汗、王华杰等赴苏州工业园区、协鑫集团考察学习，并和阿特斯阳光电力集团座谈交流，商谈项目合作事宜。', '海东市领导陈道霖、杨海林、强建海、刘志忠、魏成玉，无锡市领导柏长岭、陆志坚、蒋敏、马良、吴建元参加联席会议。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>288</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市委常务委员会召开会议</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/108724.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['日，市委书记乌拉孜别克·热苏力汗主持召开市委常务委员会会议，传达学习习近平总书记近期重要讲话及全国、全省有关会议和文件精神，研究我市贯彻落实意见。', '会议强调，要深入学习领会习近平总书记在广东考察时的重要讲话精神，紧密结合海东实际，更加重视发展实体经济，坚定不移深化改革开放，全力保障和改善民生，高质量开展主题教育，奋力谱写中国式现代化海东实践新篇章。', '“一把手”和领导班子，紧盯群众反映的突出问题，准确把握监督重点，发挥巡视巡察利剑作用，以强有力的政治监督推动党中央大政方针落到实处。要认真抓好各级各类巡视反馈问题整改，以整改成效检验对“两个确立”的忠诚拥护和对“两个维护”的坚定践行。要以对组织负责、对干部负责的高度责任感，抓好三届市委第二轮巡察工作，不断提高巡察的专业性、深入度和工作质效。', '会议强调，要充分认识耕地保护和粮食安全责任考核工作的重要性，严格落实粮食安全党政同责、一岗双责，坚决制止耕地', '“非农化”，防止耕地“非粮化”，牢牢守住耕地保护红线，切实把党中央关于耕地保护和粮食安全的决策部署落到实处。', '会议强调，要认真贯彻落实全省精神文明建设表彰大会精神，加强政治思想引领，紧扣中心大局工作，把精神文明建设贯穿到国家卫生城市、全国文明城市创建的全过程，把经济社会发展成就展示好，把和谐稳定的社会环境宣传好，把绿色宜居的生活环境营造好，用有血有肉的创新实践和发展成果激励人、鼓舞人，让群众成为精神文明建设的主力军，让群众有参与度、有发言权、有获得感。', '会议强调，在全党大兴调查研究是学习贯彻习近平新时代中国特色社会主义思想主题教育的重要内容，全市上下要强化思想认识，按照党中央确定的调研内容、方法步骤，对照省委部署要求，把深入调查研究作为提高履职本领、强化责任担当的过程，引导党员干部把下基层、重实干、求实效作为行为准则。要强化成果转换，领导干部要亲自挂帅、强力推进，切实把调研成果转化为解决问题、推动发展的强大动力。要强化纪律要求，严格执行中央八项规定精神和省、市委工作要求，采取', '会议审议《平安海东建设考评实施细则（试行）》《海东市党政代表团赴无锡市考察学习报告》《中共海东市委全面深化改革委员会']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>288</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>海东党政代表团赴兰州市考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/109007.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['日，省委常委、海东市委书记乌拉孜别克·热苏力汗，市委副书记、市长王华杰带领海东市党政代表团赴甘肃省兰州市，聚焦城市规划建设、产业发展、生态环保、乡村振兴、社会治理等工作进行考察学习，并召开两市工作座谈会。甘肃省委常委、兰州市委书记朱天舒，兰州市委副书记、市长刘建勋陪同考察并参加座谈会。', '当日，海东市党政代表团一行先后来到兰州新区绿色化工园区、益海嘉里粮油工业有限公司兰州新区粮油食品加工基地、兰州新区百万吨负极材料产业园，兰州市城市规划展览馆、大数据管理局、七里河区黄河楼等地，亲身感受了兰州近年来的发展成就，学习了先进发展经验。', '朱天舒表示，兰州市、海东市作为兰西城市群和河湟地区的两个重要城市，要认真落实习近平总书记关于', '“坚持把保护黄河流域生态作为谋划发展、推动高质量发展基准线”的重要指示要求，秉持“共守基准线、共享生活圈、共建城市群”理念，扎实促进两市在生态治理、产业发展、民生服务、文化旅游等各领域广泛交往、全面交流、深度交融，清单化、项目化推进《兰州——海东共建兰西城市群合作框架协议》落实见效。', '·热苏力汗表示，兰州市与海东市山缘相接、水缘相连、人缘相亲，合作发展基础无比坚实、前景无比广阔。希望两地以深入落实兰西城市群建设国家战略任务为牵引，充分发挥双方区位优势、资源优势，深化交流合作，在生态共建共治、基础设施互联互通、文旅融合发展的基础上，持续强化沟通对接、拓展合作领域、创造发展机遇，为加快融入全国统一大市场，持续构建新发展格局、推动高质量发展提供有力支撑。', '兰州市领导陶正茂、魏晋文、潘喆、乔建新、李东新，海东市领导马锐、陈道霖、袁林、杨海林、刘志忠、梁荣勃参加。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>288</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>海南州党政代表团来海东考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/109142.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['日，海南州党政代表团来海东考察学习。代表团先后赴互助土族自治县、乐都区、海东工业园区，实地考察高原冷凉蔬菜产业、现代职业教育、就业创业和家政服务业、乡村振兴、城市规划建设、大数据产业发展等情况。', '日下午，两地召开工作座谈会。省委常委、海东市委书记乌拉孜别克·热苏力汗主持并讲话，省人大常委会副主任、海南州委书记吕刚讲话。海南州委副书记、州长尕玛朋措，海东市委常委、市政府副市长张忠良分别介绍两地经济社会发展情况及深化两地合作重点。', '·热苏力汗对海南州党政代表团来海东考察表示欢迎。他说，海东与海南同宗共源，一道交流交融。两地山水相连、人缘相亲，是打造生态文明高地和建设产业“四地”路上的同路人，要不断深化合作，在高质量发展的进程中，更好实现优势互补、发展共赢。海东与海南同向共频，一道成长发展。海南经济社会全面步入快车道，呈现出了高质量发展的强劲态势；海东综合实力不断攀升，全市经济社会发展取得显著成绩。要找准合作切入点，拓展合作新领域，携手谱写两地高质量发展新篇章。海东与海南同生共长，一道互利互补。两地肩负着服务和融入“一带一路”、兰西城市群建设等国家发展战略的重要使命。这次交流学习，为两地拓展交流合作搭建了良好平台，必将加快推进两地资源共享、共同发展。海东与海南同舟共济，一道携手前行。两地共享一系列发展机遇，要聚焦打造绿色有机农畜产品输出地、国家清洁能源产业高地、国际生态旅游目的地，加强沟通协作，相互学习、相互借鉴，携手推动两地经济社会高质量发展，不断造福两地人民群众。', '吕刚说，此次海南州组成党政代表团到海东市考察学习，是向省内先进地区学习请教、借鉴取经的一次具体行动，更是推动海南、海东加强交流、取长补短、深化合作，更好服务现代化新青海建设大局的一次有益探索。建设现代化新青海是我们当前的重要任务，海东和海南都处于赶超跨越、争先进位的关键时期，在新的赶考路上，希望双方将以此次考察学习为契机，把海东坐拥国内规划面积第二大、青藏高原范围首座零碳产业园区，产业聚集、人才聚拢的优势和海南清洁能源得天独厚、外送能力强、绿色附加值高的优势进行互补，形成国家清洁能源高地建设的示范性合作。进一步深化现代农牧业、大数据产业等方面的交流合作，加强联动履职，做到优势互补、各展所长、同题共答，实现更深层次更高水平跨区域协同发展，携手为现代化新青海建设贡献力量。', '海南州领导钱国庆、张峰、刘燕、袁玉龙、更登加，海东市领导马锐、马化伟、袁林、杨海林、强建海、刘志忠参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>288</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>海东党政代表团赴西宁市考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/108247.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['日，省委常委、海东市委书记乌拉孜别克·热苏力汗，市委副书记、市长王华杰带领海东市党政代表团赴西宁市，聚焦城市规划建设、产业发展、营商环境优化、社会治理、民族团结进步创建等工作进行考察学习，并召开两市工作座谈会。省委常委、西宁市委书记陈瑞峰，市委副书记、市长石建平陪同考察并参加座谈会。', '当日，海东市党政代表团一行先后深入西宁市甘河工业园区中复神鹰碳纤维西宁有限公司、南川工业园区青海高景太阳能科技有限公司、城西区文汇路街道文亭巷社区、城中区西宁市市民中心、城市运行指挥中心等地，近距离触摸西宁市发展的强劲脉搏，亲身感受了西宁市日新月异的发展变化。', '座谈会上，陈瑞峰代表西宁市委、市政府向海东党政代表团一行来宁考察表示热烈欢迎。他说，推动西宁海东一体化发展，是省委、省政府交给两市的重大政治任务。要认真学习贯彻党的二十大精神和习近平总书记对青海工作重大要求，全面贯彻落实省委、省政府决策部署，抢抓发展机遇，拓展交流领域，深化务实合作，相向而行、相互成就，在推动高质量发展中唱好', '“双城记”、建好“都市圈”，为奋力谱写全面建设社会主义现代化国家青海篇章作出西宁、海东共同贡献。要共谋共推打造河湟高质量发展经济带，聚焦产业“四地”建设，坚持做大总量与提高质量并重，区域一体化与园区特色化并举，协同推进建链、延链、补链、强链，因地制宜发展“飞地经济”，推动产业链优势互补和价值链合理分工，激发一体化发展的强劲动能，着力构建“一带多园”产业发展格局，最大限度把各自的比较优势转化为共同的产业优势、经济优势和发展优势。要共谋共推打造流域高水平生态安全区，坚持系统观念和全流域协同治理理念，共同抓好大保护，协同推进大治理，锚固一体化发展的生态基底，守牢国家生态安全屏障建设大后方，扛起共同守护“中华水塔”的重大政治责任。要共谋共推打造区域高效能公共服务网，加强政务服务、公共交通、社会保障、基础设施等互联互通，探索医疗卫生、职业教育、人才培养、就业保障等合作新模式，构建公共服务共享机制，夯实一体化发展的民生之本。要共谋共推打造河湟文化高品质传承保护地，传承中华文化基因，共同挖掘河湟文化厚重积淀和丰富内涵，协同推进河湟文化创造性转化、创新性发展，讲好“河湟故事”，厚植一体化发展的文化底蕴，助推西宁海东一体化发展行稳致远。', '·热苏力汗感谢西宁市长期以来对海东社会经济发展的关心支持。他说，西宁市与海东市一直以来都是唇齿相依的好邻居、好兄弟，近年来在经济社会发展中建立了亲密关系，结下了深厚情谊。党的十八大以来，西宁市开创了现代美丽幸福大西宁建设的良好局面，处处呈现感恩奋进、热火朝天、欣欣向荣的景象，为海东树立了标杆，做出了表率。海东的发展正处在滚石上山、爬坡过坎的关键阶段，要以深入贯彻落实党的二十大精神为契机，围绕完整准确全面贯彻新发展理念、构建新发展格局、推动高质量发展的战略机遇，抢抓“一带一路”、黄河流域生态保护和高质量发展、兰西城市群建设的历史机遇，立足各自资源优势和发展特色，进一步强化战略对接、发展联动，推动形成大合作、大联动、大发展的共建共享共赢新格局，为服务党和国家工作大局作出更大贡献。要认真学习西宁在推动经济社会高质量发展中的好经验、好做法，认真学习西宁干部的好理念、好作风，切实把学习到的经验做法和理念思路，努力转化为推动海东经济社会发展的强大动力。要在推进经济协同发展、维护社会和谐稳定、打造生态文明高地、建设产业“四地”、推动产业转型升级等方面开展全方位合作，在城市更新、乡村振兴、文旅融合、乡村旅游、商贸物流、人才引育、教育医疗等方面互促共建，坚定不移推进两市经济社会高质量发展。要立足海东所“需”，学习西宁所“长”，进一步提升融合度、共促产业协同发展，进一步提升便捷性、共建一体交通网络，进一步提升精准度、共守绿色生态底色，进一步提升认同感、共创幸福美好生活，切实当好西宁的“同路人”“好帮手”，不辜负省委期望，努力续写两地协同发展新篇章。', '石建平、王华杰分别介绍了两市经济社会发展情况。西宁市领导王润宇、姜晓东、刘波、南海晏、王刚、张爱红、贾栋参加，海东市领导袁林、强建海、刘志忠、梁荣勃、魏成玉参加。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>288</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>我市招商引资全面加速</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-08-15</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/106111.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['今年以来，海东市通过落实责任、严格督查和优化服务等措施，进一步优化营商环境，创新招商模式，强化市级领衔招商，在抓好项目引进的同时，抓好项目落地工作，力争让项目引得来、落得下、见效快。', '届“青洽会”签约项目督促落实力度，对已开工建设的签约项目定期不定期深入企业和项目一线，及时掌握项目建设中存在的难点和问题，明确时间节点，分类施策、加快推进建设进度。对正在做前期工作的签约项目持续跟踪服务，及时收集项目问题事项，积极与各要素保障部门密切配合、形成合力，共同协调解决，全面提高签约项目落地率、开工率、资金到位率。', '此外，海东还持续优化改善营商环境，积极为企业争取专项资金支持。截至目前，海东市积极申报省级招商引资、工业转型升级、青海省中小企业发展等各类工业专项资金', '项。在学习考察四川、重庆、宁夏、陕西、云南、贵州等地优化营商环境先进典型经验做法基础上，结合我市实际，出台《海东市优化营商环境促进招商引资若干措施》从强化行政审批服务效能、推行行政柔性执法、强化要素保障能力等']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>288</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>互助县土地托管管出农村新气象</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/41/107468.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['随着劳务输转经济的发展，大多数青壮劳动力进城务工，各地耕地甚至出现撂荒的情况。今年以来，海东市互助土族自治县红崖子沟乡老幼村党支部立足村情实际，聚焦', '“土地谁来种、怎么种、种什么？”“村级集体经济该如何发展壮大”，综合考量土地、资金、资源和产业基础等要素，经多方学习考察、谋划研究，在坚持土地承包制不变、农民土地使用权不变、农民经营为主导不变、农户收益为主体不变的“四不变”和农民自愿的前提下，由党支部牵线、合作社接受农民委托，对其责任田实行耕、种、管、防、收、售统一管理的合作共赢的利益共同体，实现让群众在家门口“有股份、能就业、增收入”。', '“实行农村闲置土地托管制度，是解决土地闲置撂荒、增加农民收入和推进乡村振兴战略的有效途径，释放了农村劳动力，壮大了村集体经济，加速了农村农业现代化的步伐，一举三得、何乐不为。”老幼村党支部书记杨润说。', '“土地托管真是好政策，今年我出去打工，年底回来的时候还能拿到种地的钱，土地不用荒，钱照样挣”，提及土地托管的好处，老幼村村民杨应春深有感触，赞不绝口。', '为进一步推进土地集约化托管经营，壮大村集体经济，带动农民增收致富，老幼村党支部牵头成立股份经济合作社，与农户签订土地承包合同，将所承包土地统一委托老幼村股份制经济合作社种植经营，并按照', '盈余分配”的利益分配机制，开展从种到管、从技术服务到农资供应的全程土地托管经营服务，实现农业农村现代化，促进农业节本增效，既破解了土地谁来种、怎么种的问题，又发展壮大了村集体经济。', '据杨润介绍，今年，红崖子沟乡坚持将抓好党支部领办合作社作为加强基层党组织建设、发展壮大村级集体经济和推进乡村振兴的', '产业”的土地托管经营模式，变分散种植为统一管理耕种，切实解决“谁来种地”“如何种好地”的发展难题，着力激发富民强村新动能，助力乡村振兴提质提速。', '亩的长腰白菜、红橡生菜、菜薹等特色露天蔬菜试种植工作，并第一时间与深圳市等多个地区的农副产品有限公司签订了种植订单合同，农作物直产直销，从田间直接到厂家，减少了中间环节，降低了成本，预计今年示范田亩均增收可达', '以上。同时，托管种植将农户从繁重的体力劳动中解脱出来，通过外出或就地务工，实现务工收入和土地收入“双丰收”，最终村集体、托管主体和被托管农户实现共赢。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>288</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>中国海东跨境电商综试区发展成效初显</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-10-08</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/39/98033.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['日经国务院批复设立以来，服务平台如期建成、对接洽谈积极开展、人员培训稳步推进、知名度进一步提升，综试区发展成效初显。', '据了解，中国（海东）跨境电子商务综合试验区是我省获批的第一家跨境电商综试区。综试区结合我省产业优势和资源禀赋，积极探索创新跨境电子商务促进对外贸易转型升级的体制机制，着力完善产业链和生态圈，开启了青海省国际贸易新业态的新征程。', '去年以来，在赴北京、宁波等地考察学习国内综试区建设成熟经验的基础上，中国（海东）跨境电子商务综合试验区综合服务平台启动建设，并于去年10月28日建成，10月29日正式开通首单1210业务。同时，邀请省外知名专业人士对管委会相关部门、海关协管、保税物流中心运营单位、中心入驻企业等单位工作人员开展跨境业务专题培训，涉及跨境电商基础知识、仓库管理、海关政策、外贸新业态新模式线上专题培训等，累计完成210人次的培训。今年以来，为推进综试区的运营，海东市积极与宁波国际物流公司、杭州阿里巴巴、郑州万国优品、河南勤曦商业运营管理有限公司等电商企业对接洽谈。目前，已确定入驻电商企业2家。', '去年以来，在赴北京、宁波等地考察学习国内综试区建设成熟经验的基础上，中国（海东）跨境电子商务综合试验区综合服务平台启动建设，并于去年', '业务。同时，邀请省外知名专业人士对管委会相关部门、海关协管、保税物流中心运营单位、中心入驻企业等单位工作人员开展跨境业务专题培训，涉及跨境电商基础知识、仓库管理、海关政策、外贸新业态新模式线上专题培训等，累计完成', '人次的培训。今年以来，为推进综试区的运营，海东市积极与宁波国际物流公司、杭州阿里巴巴、郑州万国优品、河南勤曦商业运营管理有限公司等电商企业对接洽谈。目前，已确定入驻电商企业', '综试区的建成进一步拓宽了青海曹家堡保税物流中心的发展渠道，标志着海东向打造丝绸之路经济带重要节点城市和国家内陆开放新高地迈向了重要一步，对外开放水平到达前所未有的新高度。据介绍，今后，综试区将主动融入“双循环”发展新格局，大力培育跨境电商主体，全力扶持达到条件的内贸企业走出国门，利用综试区开展进出口贸易；鼓励在省外开展外贸业务的青海企业回归我省入驻保税物流中心开展跨境业务，计划培育2家本土特色跨境电商企业。同时，加大招商引资力度，并在目前已开通1210进口业务基础上，积极开展9710跨境企业对企业出口、9810跨境企业对海外仓出口业务，打通国际市场渠道，实现青海藏毯、青绣青海特色商品的国际市场销售。', '综试区的建成进一步拓宽了青海曹家堡保税物流中心的发展渠道，标志着海东向打造丝绸之路经济带重要节点城市和国家内陆开放新高地迈向了重要一步，对外开放水平到达前所未有的新高度。据介绍，今后，综试区将主动融入', '跨境企业对海外仓出口业务，打通国际市场渠道，实现青海藏毯、青绣青海特色商品的国际市场销售。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>288</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>兰西城市群节点上崛起的新城</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2021-12-27</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/44/100472.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['年，海东市又“长高了”：它的核心城区就如一片即将成熟的麦子，听得见节节拔高的声音；它就像一个风流少年，俊俏得光彩照人。', '这一年里，海东城市品位全面提升，城市功能逐步完善，城乡面貌持续改观，一座现代化新城已在兰西城市群节点上崛起！', '过去的一年，在习近平新时代中国特色社会主义思想的指引下，海东全市上下攻坚克难，统筹推进，心系国之大者，经济社会呈现出大发展、快发展、高质量发展态势，老百姓有了越来越多的获得感、幸福感、安全感。', '为喜迎中国共产党海东市第三届委员会第二次全体会议召开，今起，本报推出“镜头里的2021”系列报道，通过一个个镜头展现过去一年的发展成就，更好地激发广大干部群众干事创业的热情，在新的一年里奋力开创“五个新海东”建设新局面。', '”系列报道，通过一个个镜头展现过去一年的发展成就，更好地激发广大干部群众干事创业的热情，在新的一年里奋力开创“五个新海东”建设新局面。', '李玉鸿大学毕业后成为某建设企业的一名员工，虽然身在西宁，和乐都离得不算远，但平时却难得回来一次。不过，海东城市的变化他都看在眼里。', '“以前在乐都时，一家人挤在小平房里，那时的乐都不像个城市，倒像个乡镇。”李玉鸿回忆，小时候他总觉得乐都很破旧，那时没有高楼大厦，楼房也很少，“整个城市灰头土脸”，所以那时他暗下决心，今后一定要在大城市安家。毕业后，李玉鸿选择留在了西宁，并憧憬着有朝一日能在西宁安家落户。', '随着海东市的大发展，李玉鸿转变了想法。“现在海东的城市越来越美，建筑和基础设施都不比西宁差，像唐道这样的商业综合体也有了，我为啥非盯着西宁不放呢？”李玉鸿向记者透露，他今年放假回来有一个打算：在乐都买套房。', '年的海东市，没有最高，只有更高。在海东市核心区采访，很难找到“海东第一高楼”，随着城市住房建设速度的加快，好似一场增高比赛，一栋大楼超过一栋大楼。', '年，海东市借鉴优化营商环境考察学习的经验做法，统筹推动住房建设逐步向高品质发展。绿地、唐道等', '城市在“长高”，也变得越来越有品质。城市道路更加畅通，海东大道等重点项目建成使用，城市管网功能更加强大，地下综合管廊建成主体62.42公里，平安大道等14条路段实现了管线入廊，建设完成城镇污水管网17.49公里……这些都吸引着李玉鸿在乐都安家。', '李积金原先的家地处下北山芦花乡，房屋破旧不说，从山上下来一次都让人战战兢兢。山路不仅弯弯曲曲，还惊险无比。大山阻隔就是贫困的根源，走出大山的梦想终于实现。“我是今年春节前搬下来的，以前在山上靠种地生活，脱贫都困难，现在我在城里有了固定的工作和收入，总算脱贫了！”如今，李积金在乐都区一个小区当保安，一个月的工资相当于种地时一年的收入。', '李积金原先的家地处下北山芦花乡，房屋破旧不说，从山上下来一次都让人战战兢兢。山路不仅弯弯曲曲，还惊险无比。大山阻隔就是贫困的根源，走出大山的梦想终于实现。', '在平安区海东公路总段家属院，改造一新的院落让住户陈伟东赞不绝口。“家属院不再是个‘大杂院’，改造后的院子里有花有草，像个公园，尤其是夏天，大家更喜欢聚到院子里唠嗑了。”陈伟东说。', '年，海东市始终把群众对美好城市的向往和高品质生活的追求，作为市政基础设施建设的出发点和着力点，全市实施城镇基础设施和公共服务设施项目', '安达其哈村，这个位于黄河岸边的化隆小村庄，在这个冬季里再次热闹起来——很多游客慕名前来看天鹅。', '“村子美了，环境好了，乡村旅游发展起来了，村民们也就富了！”年逾古稀的马志忠谈及村里的变化时喜不自胜。面对崭新的村道，马志忠说，以前村里是土路，晴天一身土、雨天一身泥，记得小时候夏天出门都是光着脚，把鞋子挂在车把上或拎在手里，免得把鞋弄脏或弄坏。在美丽乡村建设中，村里前几年铺了水泥路，今年又改为柏油路。记者在村里看到，庄廓院的土墙也变成了砖墙，整个村庄面貌焕然一新。', '“道路好了，其他产业也发展起来了。”马志忠告诉记者，如今村里有花海，有农家乐，有养殖场，还有酩馏酒厂、餐巾纸厂，他自己则打算把', '年的醋厂从群科镇搬到村里，新厂房今年已由村集体修建完成，今后醋厂将成为村集体经济的一部分，为村民们造福。', '年也不例外，在深入推进村镇建设中，围绕建设宜居宜业美丽乡村，全力推进村镇建设，城乡面貌不断提升。全年建成高原美丽乡村', '户；全面完成农村住房安全隐患排查工作。编制完成《海东市传统村落集中连片保护利用示范市总体规划》，', '“要不是今晚一时兴起欣赏乐都的夜景，我还真没想到，现在海东发展这么快，就是缩小版的‘山城’。”最近，从重庆回乐都老家的李小倩和朋友登上乐都区蚂蚁山后，不由得在自己的朋友圈发了这样一条动态。', '这两天，每当夜幕降临时，李小倩就和家人、朋友相约在不同的地方欣赏夜景。“昨晚和朋友去了趟平安，一路上道路两侧的亮化也让我惊叹，平安的夜景并不逊色于乐都呀！”李小倩向记者感叹。', '其实让李小倩最感慨的还是乐都区蚂蚁山现在的山体亮化工程，它借鉴了国画艺术中金色山水、青绿山水、金碧山水的层次概念，通过灯光的运用，使建筑、景观、植物、水系等的空间主次结构更加鲜明。“刹那间，有种在重庆的感觉！”李小倩说。', '其实让李小倩最感慨的还是乐都区蚂蚁山现在的山体亮化工程，它借鉴了国画艺术中金色山水、青绿山水、金碧山水的层次概念，通过灯光的运用，使建筑、景观、植物、水系等的空间主次结构更加鲜明。', '海东核心城市之美，不仅美在每一个角角落落，还美在夜晚的璀璨。在今年的住房和城乡建设中，海东市不断赋予城市以夜的色彩，提升城市照明设施水平的同时，扩大城市照明设施范围，智慧路灯使用率不断提高，城市亮灯率达到了', '以上。在城市亮化工作中，依托现有的建筑特点和地形风貌特色，用灯光勾勒山水，通过灯光使建筑、景观、植物、水系等的空间主次结构更加鲜明，赋予了整个城市新的活力和内涵，形成了一个多层次、立体化、动静结合、远近互衬、高低错落的夜间整体景观。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>288</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>海东市卫生和计划生育委员会年三公经费支出公开表</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014-09-05</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46978.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['辅助说明： 一、因公出国(境)经费 2013年我局没有人员因公出国(境)业务培训和交流，所以没有开支因公出国(境)费用。 2014年我委没有安排因公出国(境)计划，所以没有安排预算。 二、公务接待费 2013年，公务接待费支出6.74万元。主要用于接待省外、本省卫生系统工作人员来我市学习、考察、检查、督导、调研工作情况时的用餐费、会议室租赁费和接待六县卫生工作人员来我局办事时的用餐费。 2014年，安排公务接待费预算5.4万元。预算安排的主要理由：主要用于省内外及州、县的交流调研时的费用接待等。 三、公务用车购置及运行维护费 2013年，公务用车购置及运行费支出9.57万元，其中车辆运行费9.57万元，主要用于开展基层工作调研，业务工作监督检查、验收活动，对六县进行季度督查、半年质量抽查、年终考核等公务活动所发生的车辆燃料费、维修费、过路过路费、保险费等。 2014年，安排公务用车购置及运行费7.5万元，主要用于开展州县及六县卫生和计划生育委员会项目调研、检查、验收、年中、终考核工作，绩效工作评价，业务人员培训等。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>288</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>乐都区突出五项措施着力打造五型社区</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2015-01-08</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/34/47281.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['近年来，乐都区高度重视社区建设管理工作，将社区建设作为服务经济发展、维护社会稳定、关注改善民生的重要手段，社区建设管理日趋规范，社区服务水平不断提高，社区建设迈上了新台阶。在今后一段时期，乐都区将以发展社区服务为龙头，以提高社区居民生活质量和加强社区精神文明建设为宗旨，紧紧围绕“社区建设社会化、社区服务市场化、社区管理科学化、社区功能现代化”的工作思路，以建设“五型”社区为着力点，努力建设管理有序、服务完善、环境优美、治安良好、生活便利、人际关系和谐的现代化社区。', '（一）加强社区组织建设，建设向心型社区。通过创新社区党组织设置，扩大党组织的覆盖面，积极探索社区在职党员、流动党员、困难党员、老党员分类管理工作机制，对无职党员开展设岗定责活动，组织党员参加志愿者服务队伍，充分发挥党员的模范带头作用。一是在进一步完善社区党建“网格化”的基础上,积极探索社区党建新的组织形式和工作机制，充分发挥党员在社区建设中的先锋模范作用，努力扩大党的工作在社区的覆盖面和影响力。二是建立健全社区居民会议、社区居民代表会议、社区居民委员会、社区议事协商委员会等自治组织体系，规范和完善以“民主选举、民主决策、民主管理、民主监督”为特征的社区基本管理制度，健全社区居民自治机制，强化社区依法自治功能。三是加快构建以社区党组织为核心、以社区居民自治组织和社区服务站为两翼、以社区服务组织为依托、以社区中介组织为载体的社区领导、管理和服务体系。理顺社区自治组织与物业管理、社区民间组织的关系，形成社区建设管理新格局。四是从建设和谐社区入手，组织社区群众全面开展社区地方文化、体育比赛、健身娱乐等集体活动，丰富群众文化生活；利用读书会、学习会等形式加强社区群众文化知识学习，发挥社区在提高人民生活水平和质量上的服务作用，形成社区“两委”与群众和睦相处的良好局面。', '（二）加大社区建设投入，建设能力型社区。制定出台《乐都区进一步加强社区服务体系建设的实施意见》，配套完善具体政策措施，加大基础设施投入，不断改善社区办公和服务条件。规范社区工作者岗位设置、任职条件、行为礼仪、首问责任、考勤值班、突发事件处置等程序办法，对社区服务的主要目标、服务程序、质量标准、完成时限、责任要求等事项作出明确的界定。一是将社区建设纳入城市建设总体规划，合理布局，标准化建设，使社区基础设施更趋完善。明年完成朝阳山、九哈家、七里店、寿乐等4个社区办公和服务场所建设，开工建设汉庄、文化街、新乐西街、水磨营、古城西街等5个社区，并着力打造标准化社区。二是多渠道广泛争取企业单位支持、社会捐助和有奖募捐资金投入，社区协助有关部门开展工作，按照“权随责走、费随事转、事费配套”的原则收取费用，以保证社区建设必要的财力和物质保障。三是充分利用区委党校、职业教育机构等培训资源，采取“走出去”与“请进来”相结合的办法，加强社区人员业务培训，有计划的组织社区管理服务人员到发达地区参观考察、学习培训，吸收先进的社区管理经验和方法，全面提高其管理社会事务、协调社区关系、开展群众工作、处理矛盾纠纷的本领和服务水平，为社区规范化建设、标准化管理提供人力保障。四是改革社区干部选任制度，采取民主选举、公开招聘、竞争上岗等办法，选聘政治素质好、文化程度高、工作能力强、热心社区工作的优秀人才，充实到社区居委会，逐步建设一支高素质的专职社区工作队伍。', '（三）强化社区服务功能，建设服务型社区。加强对社区管理工作组织领导、政策支持和业务指导，引导社区居委会充分发挥服务职能，以“利民、便民、为民”为宗旨，从社区群众最关心、最需要的细节问题入手，创新工作机制，努力为社区群众提供全方位、多层次、高质量、人性化的服务。一是加强社区服务中心和服务站点建设，完善社区网格化管理，提升精细化服务水平。积极整合政府公共服务、企业社会化服务和社区专业服务等各种资源，充分发挥政府、社区居委会、民间组织、企业和居民在社区服务中的作用，形成覆盖社区全体成员、功能完善的社区服务体系。同时，积极培育群众性服务组织和志愿者队伍，动员社区单位和居民开展邻里互助、志愿服务、社区慈善等活动，不断提高居民自我服务的能力。二是大力推进公共服务体系建设，全面开展面向困难群众的社会救助服务，面向下岗失业人员的再就业服务，面向被征地农民的社会保障服务，面向企业离退休人员的社会化管理服务，面向社区居民的基本医疗和公共卫生服务，全面提升社区服务能力。三是按照投资主体多元化、服务对象公众化、服务体系社会化、社区服务产业化的要求，引入市场机制，积极培育中介组织和服务实体，鼓励相关企业和个体经营者在社区开办销售、餐饮等服务项目，鼓励商业企业以连锁经营、品牌加盟等方式在社区开办商业服务网点，加快推进社区服务社会化、产业化进程。同时，强化政府管理和监督职能，确保社区服务良性发展。', '（四）推进社区居民自治，建设自治型社区。坚持行政推动和社会培养相融合、政府指导和社会参与相结合，有计划、有步骤地推进社区自治。一是健全居民代表会议、决策听证、矛盾协调、政务评议、民情恳谈、议事协商等社区民主自治制度，把与居民利益密切相关的社区事务交给居民讨论、决定，畅通居民参与管理的渠道，增强居民对社区的认同感和归属感，调动居民民主参与社区建设管理和服务的积极性；进一步完善居民公约、居民自治章程等自治制度，保障居民自治健康发展。二是加强协调力度，根据各社区实际情况，加快建立融行政调解、司法调解、人民调解和信访服务功能为一体的社区矛盾纠纷调解服务中心，及时疏导和化解群众矛盾。建立及时有效的矛盾纠纷排查、调处工作机制，加强对刑释解教人员、监外执行人员和有不良行为青少年的帮助、教育和转化工作。强化社区治安防范知识宣传，鼓励群众参与群防群治，提高居民的自防意识，形成治安防范人人有责的良好氛围。', '（五）整合社区共建资源，建设和谐型社区。一是加大社区建设工作的宣传力度，使社区建设深入居民群众，家喻户晓，人人皆知，营造一种共建共享的氛围，使共驻共建单位自觉地把本单位的管理纳入到社区发展、社区管理上来。二是充分调动驻区党政机关、企事业单位、各类经济组织构建和谐社会的积极性，深入开展城乡共建、社区共建、警民共建、双拥共建等活动，健全定期例会、信息沟通等制度，协调各方利益关系，增进互信互动，形成“社区工作联作、社区治安联防、社区文化联建、社区教育联抓、社区环境联治”的良好局面。三是支持引导社区成立各类社团组织广泛开展健身、养老、文体、读书、书法等活动，着力打造各具特色、丰富多彩、积极向上的社区文化。四是采取“挂、融、帮”等措施，让机关党员走进社区，深入群众、了解民意，开展志愿服务活动，发挥机关在职党员对社区建设管理和服务的助推作用，合力构建和谐社区。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>288</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>青海省海东市扶贫开发局三公经费支出公开表</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2013-09-22</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46927.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['辅助说明： 一、因公出国(境)经费 2012年我局没有人员因公出国(境)业务培训和交流，所以没有开支因公出国(境)费用。 2013年我局没有安排因公出国(境)计划，所以没有安排预算。 二、公务接待费 2012年，公务接待费支出4.395万元。主要用于接待省外、本省扶贫系统工作人员来我区学习、考察、检查、督导、调研工作情况时的用餐费、会议室租赁费和接待六县扶贫系统工作人员来我局开会时的用餐费、会议室租赁费等。 2013年，拟安排公务接待费预算4.2万元。预算安排的主要理由：主要用于其他州、县及六县的交流调研接待等。 三、公务用车购置及运行维护费 2012年，公务用车购置及运行费支出4万元，其中车辆运行费4万元，主要用于开展基层工作调研，实施业务工作方面监督检查、验收活动，对六县进行季度督查、半年质量抽查、年终考核等公务活动所发生的车辆燃料费、维修费、过路过路费、保险费等。 2013年，拟安排公务用车购置及运行费3.8万元，主要用于本单位开展全市六县扶贫项目调研、检查、验收、绩效评价等工作。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>288</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>青海省海东市公路运输管理处三公经费支出公开表</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2013-09-22</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46920.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['辅助说明： 一、公务接待费 2012年，公务接待费支出5.28万元。主要用于：（1）省局对我区2012年度运政管理工作的目标考核；（2）河北省廊坊市运管处来我区考察学习道路运输管理工作；（3）邀请省道路运输协会专家来我区对各驾校教练员为期6天的岗位培训；（4）邀请省局道路运输协会专家对综合性能检测站（宏达达、交通）工作人员岗前培训；（5）邀请省局专家对汽车站、出租车行业务骨干的培训；（6）邀请省局专家对全区道路运输企业进行安全管理培训；（7）重大节日（元旦、春节、五一、十一等）省交通厅、运管局来我区检查安全管理工作；（8）省交通厅、运管局对我区检查行政执法评议考核工作；（9）对我区精神文明窗口单位进行验收；（10）北京交科院及省运管局对我处运管系统局域网维护及从业资格证管理系统升级改造等公务接待工作中发生的交通费、住宿费、用餐费、会议场馆租赁费。 2013年，拟安排公务接待费预算5.02万元。预算安排的主要理由：（1）省局对我区运管系统“四统一”、行政执法评议考核、道路运输安全管理隐患排查等工作的检查；（2）半年及年度全区统计数据的汇审；（3）道路运输行业经济、统计专项调研；（4）省局对我区客货运输企业、驾校、汽车站、维修企业进行年度质量信誉考核；（5）省、地对我区春节、五一、十一等重大节日期间安全生产大检查；（6）对我区精神文明窗口单位的检查验收工作（7）2013年全区运政管理目标考核；（8）交通运输部科学研究院现代物流研发中心来我区调研四县一级客运站和货运枢纽中心站进行可行性研究、设计初审；（9）交通运输部来我区调研临空经济开发区一级客运站、公交车首末始发站及货运大型停车场、小客车停车场的调研，进行可行性勘察研究、初步设计等；（10）交通运输部公路科学研究院来我区调研2013—2020年度海东市公路运输枢纽总体规划的调研、设计等。 二、公务用车购置及运行维护费 2012年，公务用车运行费支出3.98万元，主要用于开展基层工作调研、实施道路运输安全方面监督检查、客运站点验收活动、开展精神文明窗口单位绩效考评、目标考核及开展以上2012年业务工作所发生的车辆燃料费、维修费、过路过桥费、保险费等。', '2013年，拟安排公务用车运行费3.78万元，主要用于开展以上2013年业务工作所发生的车辆燃料费、维修费、过路过桥费、保险费等。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>288</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>海东市扶贫开发局年三公经费支出公开表</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014-09-05</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46979.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['辅助说明： 一、因公出国(境)经费 2013年我局没有人员因公出国(境)业务培训和交流，所以没有开支因公出国(境)费用。 2014年我局没有安排因公出国(境)计划，所以没有安排预算。 二、公务接待费 2013年，公务接待费支出4.1765万元。主要用于接待省外、本省扶贫系统工作人员来我区学习、考察、检查、督导、调研工作情况时的用餐费、会议室租赁费和接待六县扶贫系统工作人员来我局开会时的用餐费、会议室租赁费等。 2014年，拟安排公务接待费预算3.99万元。预算安排的主要理由：主要用于其他州、县及六县的交流调研接待等。 三、公务用车购置及运行维护费 2013年，公务用车购置及运行费支出3.8万元，其中车辆运行费3.8万元，主要用于开展基层工作调研，实施业务工作方面监督检查、验收活动，对六县进行季度督查、半年质量抽查、年终考核等公务活动所发生的车辆燃料费、维修费、过路过路费、保险费等。 2014年，拟安排公务用车购置及运行费3.61万元，主要用于本单位开展全市六县扶贫项目调研、检查、验收、绩效评价等工作。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>288</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>海东地区检察分院年三公经费支出和年预算安排情况说明</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2012-10-15</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46876.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['2011年，因公出国(境)支出2.5万元，主要用于检察系统赴俄罗斯开展检察业务培训考察学习，我院参加人数一人，发生的境外交通费、住宿费、培训材料购置费等。', '2011年，公务接待费支出32.76万元，主要用于自侦部门案件的内查外调，全力做好 两节 、 两会 等敏感期间的各项维稳工作，积极参与了突发事件的处置及各类值勤和法制宣传教育工作；开展了严肃查办危害民生民利渎职侵权犯罪专项工作；积极配合有关部门开展打击侵犯知识产权和制售假冒伪劣商品犯罪专项活动；组织开展了以 加强渎职侵权检察工作，促进依法行政与公正司法 为主题的 举报宣传周 活动。同时，积极开展', '大力开展 诉讼监督年 活动，以提高诉讼监督能力为核心，强化工作措施，全面履行各项诉讼监督职责，促进司法公正，维护公平正义。认真落实全面推行人民监督员制度的工作方案，共选任了23名人民监督员，其中分院5名，六个基层院各3名。全区检察机关工作表彰会议，反贪、公诉、统计、法警、人民监督员等部门的业务培训，上级和省地县相关单位的公务接待费', '继续深入开展 大学习、大培训、大练兵 活动。共举办各类培训班5次，分院组织举办了全区首次公诉人论辩赛，全区先后有60余名同志参加了高检院、省院举办的各类专项业务培训。组织全区检察人员参加高检院举办的《执法规范》电视网络培训班，20名检察人员参加了全国统一考试。', '继续深入推进检察人员进企业、进农村、进学校、进社区的 四进 活动；继续深入查办涉农职务犯罪，强化涉农法律监督和司法保护，保障中央、省上各项支农强农惠农政策的有效实施。加强派驻监管场所检察室建设。深入开展 忠诚、为民、公正、廉洁', '继续推进 大学习、大练兵、大培训 活动，下大力气抓好各项业务培训、专业技能培训和司考培训工作，着力提高业务素质和执法能力。', '我院2011年，公务用车购置及运行费支出60.9万元，其中：车辆运行费60.9万元，主要用于反贪、反渎等自侦部门的内查外调，开展检察工作业务调研，各项工作的检查落实，纪检监督部门的监督检查，各县院办案工作区的装修、设备安装、调试和验收等公务活动中所发生的车辆燃料费、维修费、过路过桥费、保险费等。2012年，拟安排公务用车购置及运行费112万元，其中：车辆购置54万元，购车的理由，现有四辆车分别使用了10至11年不等，目前，老化严重、故障频繁，已按规定办理报废手续，本年度拟按我省相关公务用车配备标准更新购置3辆；车辆运行维护费58万元。今年比去年公务运行费超支的原因是：今年更新了三辆执勤执法车辆。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>288</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>青海省市州县部门三公经费支出公开表</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2013-09-22</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46928.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['辅助说明： 一、因公出国(境)经费 因公出国(境)经费:2012年没有支出经费，2013年财政没有安排因公出国（境）预算经费。 二、公务接待费 (一)接待省外、来我区学习、考察、检查、督导、调研、交流人口计生工作人员的用餐费、会议室租赁费； (二)接待省内人口计划生育系统流动人口管理人员调研，检查、交流的用餐费、会议室租赁费； (三)接待全区人大、政协工作人员的用餐费、会议场租费。 2013年，拟安排公务接待费预算1万元。预算安排的主要理由: (一)省外计划生育系统来我区学习、考察、检查、督导、调研、交流人口计生工作人员的用餐费、会议室租赁费； (二)接待省内人口计划生育系统对计划生育工作的调研，检查、交流人员的用餐费、会议室租赁费； (三)接待全区人口文化艺术节人员的用餐费、住宿费、会议场租费。 三、公务用车购置及运行维护费 2012年，公务用车购置及运行费支出6万元，主要用于参加各项会议、业务工作检查督导，对六县进行季度督查、半年质量抽查、年终考核等所需的公务用车燃料费、维修费、过路费及车辆保险费等。 2013年，拟安排公务用车购置及运行费6万元。用于参加各项会议、业务工作检查督导，对六县进行季度督查、半年质量抽查、年终考核等所需的公务用车燃料费、维修费、过路费及车辆保险费等。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>288</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>海东地区科技事业发展十二五规划</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2012-06-26</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/26/46452.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['十二五 期间是贯彻落实科学发展观、构建和谐社会、推进我国科技事业发展的重要时期，也是继续深入推进《国家中长期科学和技术发展规划纲要》各项战略部署的落实、建设创新型国家、实现全面建成小康社会宏伟目标的关键时期。根据《中共中央国务院关于实施科技规划纲要增强自主创新能力的决定》、《国家中长期科学和技术发展规划纲要（2006-2020年）》精神和行署的安排，为全面提高全区科技创新能力，建设小康社会、建设社会主义新农村提供强有力的科技支撑，现结合海东实际，特制定本规划。', '十一五 期间，共实施各类科技项目163项，其中实施科技富民项目34项，总投资45833万元，其中无偿资助资金4780万元。科技项目的实施效果显著，各类科技项目已实现产值65860万元，实现利税5200万元。大力引进推广农业新技术、新品种、新材料、新设备，充分发挥科技项目的先导和示范作用；全区现代农业科技示范园区建设项目全面启动,增置了一批先进的农业设施，又带动辐射周边地区，推广了一批重点技术和品种，取得了显著的经济效益。提高农户科学种植、养殖水平，增加农民收入，使我区科学养殖种植水平有了新的提高。农村能源建设又有新的进展。在全区推广太阳灶14.16万台，加之农民自行生产和购买的部分，全区15万多农户用上了太阳灶，2万多农户用上了沼气，既缓解了农村能源紧缺的困难，也保护了生态环境。争取国家项目实现新突破。 十一五 期间，海东争取到科技部项目23项，无偿资助资金达到3480万元，总投资在3亿元以上。其中，争取到较大的科技项目8项。列入国家科技支撑计划1项的 平安元石山镍铁矿科技开发项目 ，总投资1.95亿元，其中科技部无偿资助1000万元；互助、平安、乐都等6县分别争取到的科技部富民强县项目，年平均争取无偿资助资金203万元，资助资金总额达到1015万元（互助120万元、平安170万元、乐都210万元、民和180万元、化隆165万元、循化170万元）。争取到科技部专项1项，乐都县《青海——杨凌高新农业技术合作模式建立及其关键技术研究》项目，无偿资助资金达200万元。这些项目的实施极大地提升了海东的科技和经济的发展水平。', '科技特派员制度进一步完善和发展。在试点的基础上，科技特派员制度在 十一五 时期全区6县全面推行，全区先后选派180名科技特派员到农村或企业，为86个科技项目开展技术服务。科技特派员与农民、企业结成利益共同体，实行风险共担、利益共享机制，找到了在市场经济条件下科技为生产服务的结合点。地委、行署出台了《关于鼓励科技人员领办、创办、承包、承租经济实体暂行办法》，对科技人员实行业绩与收益挂钩，调动了积极性，创造了展示其才华的平台。科技特派员开展科技培训更加贴近农民需求。共举办各类培训班1000余次，培训农民2万人（次）。科技推广力度加大，农民收入明显提高。实施科技特派员项目140余项，加上实施的其它科技项目，共实施各类科技项目180余项。创建利益共同体11家，形成龙头企业5家。', '。地、县、乡共有技术服务推广站169个，全区科技人员总数达到30419人。全区每万人有科技人员192.5人（按全区人口158万人计）；其中，工程技术人员13.16人；农业技术人员21.08人；卫生技术人员18.56人；教学人员104.06人 ，已初步形成了一支门类齐全的专业人才队伍。全区每年有35万名以上农民参加各类科技培训，其中2万名以上的农民受到重点培训。已有24471名农民领到技能培训合格证书，22799名农民领到绿色证书，农民实用人才已达到10万人。全区共培育科技示范乡镇20个，科技示范村210个，科技示范户11622户。组建地、县级学会和专业协会300个，会员达3万多名；建成省级农业科技园区2个，地级农业科技园区4个。建立农业各类科技示范基地28个，种植面积达到30万亩；省级林业科技示范基地4个，县级10个，应用各类新技术造林60余万亩；畜牧业科技示范基地24个，规模养殖户达到4万户。', '。全区工业企业不断进行技术改造，共完成各类技术改造70余项。同时不断增强企业内部技术力量，研究运行新技术，不断开发新产品，从而实现了产值大幅跃升，质量不断提高，品牌不断涌现的局面。以水泥为主的建材产业，以年均20％以上的速度增长，生产能力达到275万吨，占全省的水泥生产能力的60％；以硅铁、碳化硅、电解铝为主的高耗能冶炼业在提高技术装备水平中得到发展壮大，产量分别占全省的50％、20％、11％；以水电为主的能源开发势头强劲，水电装机容量达到204万千瓦，正在建设的电站达到172万千瓦；以 雪舟 、 伊佳 等为主的轻纺也开发发展迅速，产值达到2.1亿元，出口创汇达到1120万元；以 互助 牌青稞酒、天香辣椒等为主的食品、饮料工业技术开发，成为全省的特色品牌。', '坚持长期开展了 科普之冬 、 科技活动周 、 科技下乡 和科技培训工程。近年来每年举办各类科技培训班1000多期，培训群众80多万人（次），骨干人才10万多人（次）。积极配合科技部实施的 西部科技人才培训工程 、中科院实施的 西部之光 培训项目，培训中青年科技人才400多名。全区120多名科技管理人员、专业科技工作者到省内外接受高层次专业培训。同时在中小学开展了丰富多彩的校园科技活动，每年有25万多人（次）青少年受到科普教育。', '当前，科学技术的新突破以及重大集成创新的不断涌现，使科技创新呈现群体突破态势，科技综合实力和国际竞争力不断提升和加强，国家重视支持科技事业发展的力度明显加大，政府对科技发展的推动作用明显增强，科技成果转化速度明显加快，科技与经济的结合不断加强、影响日益增大，研究与开发的国际化趋势明显加快，区域间的科技合作与交流日益广泛，知识产权保护面临尖锐的挑战，学科交融整合加快，新兴学科不断涌现，科技与经济、社会、教育、文化的关系日益紧密。国家和省委、省政府对科技事业发展提出了很高的要求，国家将继续实施西部大开发战略，支持的重点仍然向科技、“三农”、民生、农村和社会事业倾斜，我们也将面临一个重要战略机遇期，由于我区是一个农业大区，因此，全区科技事业的发展正面临着前所未有的机遇。地委、行署对科技工作的高度重视，各级领导科技意识的增强，依靠科技促发展,从科技中要生产力已成为人们的共识。', '随着科技的发展与进步以及经济的持续快速增长，区域间科技发展呈现明显的差异，东西部地区科技发展的快慢造成了经济发展的不平衡，东部发达地区十分重视科技发展，不断加大对科技的投入，科学技术呈现飞速发展的势头。 十二五 时期，是我国科技发展进入一个飞跃发展的阶段，自主创新仍然是科技工作的主旋律。海东地区是一个欠发达地区，科技事业发展相对滞后，科技创新的观念不新，机制不活，大部分企业技术创新意识薄弱，尚未真正成为技术创新的主体；经济增长方式仍然以资源消耗和粗放型为主，高新技术产业化水平不高，传统产业高新化速度不快，产业基础薄弱，缺乏一批大型龙头企业和知名品牌；产业结构调整力度不大，科技成果转化步伐相对缓慢，工农业生产中的科技含量不高；劳动者科技文化素质普遍较低，全民的科技意识不强，社会事业发展相对落后；科技投入严重不足，政府科技投入没有形成稳定的增长机制，地、县科技三项经费和科普事业费没有完全落实到位，企业的科技投入仍然不足，风险投资机制尚未建立；科技人才缺乏，结构不尽合理，尤其科技拔尖人才和专业技术人才贫乏；科技资源整合不够，资源浪费严重，科技服务 “三农” 措施不多，农村经济发展落后，贫困问题突出。', '一是推动全区社会全面发展，提高全区劳动者的素质和生活质量必须依靠科技进步和技术创新，保护生态环境，提高人口素质和全民生活质量，合理利用资源，防灾减灾，解决“三农”、民生问题等都离不开科技进步和创新。二是加快海东发展速度，缩短与先进发达地区的差距必须依靠科技进步和创新，只有积极引进先进技术和人才，加强与东部地区的科技合作与交流，发展高新技术、信息技术和生物技术产业，加快传统产业技术更新，才能加快发展速度，缩短差距；才能保持较快增长速度，扩大经济总量和规模。全面实施科教兴区、人才强区战略，落实科学发展观必须依靠科技进步和创新。只有加大科技投入力度，大力引进试验、示范推广、消化吸收科技先进技术，加快科技成果转化步伐，提高科技含量，才能全面完成实施科教兴区、人才强区战略的各项目标和任务。', '坚持以邓小平理论和 “三个代表”重要思想为指导，贯彻落实科学发展观和全国科学技术大会精神，认真实施 国家中长期科技发展规划纲要 ，为推动经济发展方式转变和经济社会的持续协调发展提供扎实的科技基础。以农业示范园区、工业园区建设为契机，以提高自主创新能力为核心，加强各领域高新技术的开发应用，围绕我区经济发展对科技的需求，鼓励科技人员领办、创办经济实体，大力实施农业科技入户工程，加快农业产业化和现代化进程；加大科技投入力度，加快科技成果向现实生产力转化；以高技术、创新人才为重点，贯彻 人才兴区 战略，建设结构合理的科技人才队伍；以增强自主创新能力作为调整产业结构、转变发展方式的中心环节，加快技术进步步伐，实现社会生产力质的飞跃。', '1、立足区情，协调发展。 区不强、民不富 是我区的基本区情，我们要从我区是传统农业区的实际出发，合理有效利用本地资源，引进和推广全区经济发展中的重点技术，着力改造和提升传统产业，不断提高农民素质，努力增加农民收入，走出一条符合区情的科技与经济协调发展的道路。', '2、政府引导，多元推动。不断加大各级政府对科技的投入力度，充分发挥政府的支持和引导作用，与此同时，充分调动农民、企业及全社会参与科技工作的积极性，努力形成政府引导、多元推动的科技工作新局面。坚持以市场为导向，市场运作与政府引导相结合的原则。', '3、大力引进，积极创新。坚持 人才兴区、人才兴业 方针，积极创新人才管理机制，建立和完善人才分配激励机制，着力营造尊重知识、尊重人才的社会氛围，逐步形成鼓励人才干事业、支持人才成事业、帮助人才干好事业的社会环境。', '4、科教结合，普及提高。坚持普及与提高、科技与教育相结合。大力加强科普工作，广泛宣传科宣思想、科学方法和科学精神，在全社会树立崇尚科学、应用科学、尊师重教的风尚，提高全民科学素养和创新能力。', '面对国内外科技创新的大潮， 十二五 时期我们要充分依靠科技力量，促进产业升级和增长方式转变，增大科技含量，提高生产效率，节约能源和资源消耗，提升经济效益，大力推进创新型社会建设，实现我区经济社会的协调、平稳、持续、健康发展。', '建立以政府为主导、企业为主体、产学研相结合的技术创新体系，自主创新能力显著提高；高新技术产业化取得突破性发展，培育一批省级科技企业和高新技术企业，提升科技进步对经济增长的贡献率；传统产业技术水平、竞争力和经济运行的质量、效益显著提高，科技成为引领和支撑经济、社会发展的重要力量。', '——科技进步、创新支撑和引领经济社会发展的作用更加突出，科技进步对国民经济增长的贡献率达到50%。', '——全社会科技经费投入的力度进一步加大，到2015年，研究与实验发展经费支出占生产总值比重达到1%。', '——科学技术普及工作力度加大，年人均科普经费达到0.5元以上，年培训人数达45万人次以上。', '农业科技园区、科技示范企业为依托，建立和完善农业科技服务体系，在引进、试验、示范基础上，推广应用多项现代农业新品种、新技术。围绕特色农产品基地建设，培育和壮大一批生产规模大、科技含量高、市场覆盖广、辐射能力强、能带动农民增收致富的农产品加工龙头企业，不断提升农业产业化水平', '开展种薯小型化栽培技术、催芽技术、整薯播种技术、病虫害防治技术、测土施肥技术、机械化种植技术等技术。加大马铃薯和杂交油菜两大优势产业的深加工力度，争取引进相关企业和资金，开展深加工，提高其附加值。', '。海东地区开展制种业具有得天独厚的优势，目前虽开展有零星的马铃薯和油菜制种工作，但还很不够。在 十二五 期间做大做强马铃薯和油菜两大优势产业的制种业，投资2个亿，逐步把互助大部分、乐都和民和北山建成西北最大的马铃薯和油菜制种基地。把湟水和黄河谷地，建成蔬菜和花卉制种基地，以青海海东国家农业科技园区为依托，开展精细蔬菜和名贵花卉制种的引进、研究、试验、示范和推广工作，特别是冷凉型球根花卉繁育技术集成与示范推广。争取打出高原制种品牌。', '。随着我区大型水电站建设的不断增加，水域面积随之增多，为我们发展冷水养殖业提供了新的条件，据有关专家预测，到 十二五 末，我区大型水库可供养鱼水域面积达到25平方公里以上。通过示范养殖基地建设，争取多方投资，总投资达到5亿元，', '，把我区黄河上游的李家峡水库、康扬水库、苏只水库、公伯峡水库和积石峡水库建成网箱冷水养殖基地，并串联成一个整体，发展冷水养殖产业，并在此基础上发展休闲观光业，争取年产值达到1亿元，年创收5000万元以上。', '通过引进、应用和再创新等多种途径，大力发展炉外精炼新工艺、精料入炉技术、真空脱气冶炼技术、精密铸造技术、铜锌铅冶炼短流程工艺、低品位多金属共生矿采选技术等先进工艺技术。', '大力引进和发展大尺寸单晶硅切割技术、电子薄膜及绿色电池材料制造技术、轨道交通用轻质高强合金材料加工技术、复合保温隔热技术、垂直轴系统高性能风电设备制造技术等高新技术。', '积极引进和推广应用先进的节能和清洁生产技术，组织开发共伴生矿产资源和尾矿综合利用技术，能源节约和替代技术、能量梯形利用技术、 零排放 技术，绿色再制造技术以及新能源和可再生能源开发利用技术等。积极推动冶炼企业进行高温烟气余热回收、推广矿热炉低压补偿技术、硅微粉回收和综合利用技术、大力开发新型节能墙体配套产品和技术，培养和发展太阳能、风电等新能源和清洁能源。', '1、推进海东现代农业、工业园区建设，争取在产业的规模化、标准化、产业化、品牌化、市场化上取得新突破，在体制机制改革创新上迈出新步伐，在资源转化上取得新成效，着力解决区域产业发展中存在的技术难点和瓶颈，着力强化科技支撑、科技示范、科技带动、科技培训、科技创业等功能，提高自主创新能力，建成集技术研发、成果孵化、示范推广为主要特征的科技服务中心和研发平台。', '2、以 123 科技支撑工程为依托，强化科技的支撑和引领作用。推广应用和创新先进制造技术，积极培育新能源、新材料、高端装备制造、生物医药等战略性新兴产业，努力形成新的经济增长点。重点做好单晶硅、多晶硅制造技术的应用，农牧区生产、生活太阳能利用技术的推广，建设好30万吨低品位镍铁矿综合利用示范工程，系列铸锻件开发等 123 工程项目，并力争在 十二五 期间再实施3-5个 123 科技项目。', '3、依托高等院校、科研院所、产业技术创新联盟及科技中介机构，开展产业共性关键技术研发，加快先进适用技术成果推广应用，构建面向传统产业和战略新兴产业发展的技术创新服务平台。', '为确保海东地区 十二五 科学技术事业发展规划的顺利实施和各项既定目标的完成，应采取以下措施。', '政府要从战略的高度，充分认识推进科技进步和技术创新的重要性和紧迫性，把加强科技进步和技术创新，发展高新技术，实现产业化作为科技事业发展的重点摆上重要的议事日程，切实加强领导。认真调查研究，根据实际情况，解放思想，大胆创新，形成具有海东特色和优势的科技与经济发展战略。', '把提高自主创新能力作为一项重大战略任务，作为落实科学发展观的重要内容来抓，加强统筹协调，强化政策支持，优化创新环境，开展创新服务，做到思想到位，领导到位，工作到位，精力到位，措施到位。地、县党委和政府每年要召开两次以上专题研究科技工作的会议，及时研究解决突出困难和问题，做好科技措施落实工作的督促检查，把全区经济社会发展切实转移到依靠科技进步和提高劳动者素质的轨道上来。实行科技创新目标责任制，建立地、县科技创新考核评价制度，实行党政领导科技创新目标责任制，把指导科技工作和推动科技进步的成效纳入各级政府和领导干部的年度责任进行考核。领导干部要带头学习现代科技知识和科技政策，不断提高科技决策和管理能力', '。认真落实中央和省上关于增加科技投入的各项政策，各级财政把科技投入作为预算保障的重点，确保财政科技投入增幅明显高于地方一般预算收入增幅。科普经费地、县要按人均0.5元分级预算。要引导企业和社会各方增加对科技事业的投入，加快建立多元化、多渠道的社会投入机制。要进一步调整优化财政科技投入结构，集中科技投入经费办大事情。不断完善科技经费使用的评估和监管制度，切实提高科技投资效益。', '。科技人才是第一生产力的开拓者，必须高度重视人才培养和科技队伍建设。进一步改善提高科技人员的工作条件和生活待遇，努力在全社会形成尊重知识、尊重人才的社会风尚。组织实施科技人员 换脑筋 工程，地、县每年要有计划、有针对性地组织2-3批科技人员到省内外经济发达地区或高科技企业，实地考察学习先进的科技知识和管理经验。组织、人事、科技等部门要制定完善选拔、培养科技人员的办法，把德才兼备，具有管理和领导才能的中青年科技人才选拔到领导岗位。完善科技人员培养激励机制，逐步加大政府科技奖励力度，重点建设一批具有科技创新能力、科技服务能力的较高层次的科技人员队伍，积极培养大批高素质、技能型的产业工人和农村实用人才。按照 不求所有，但求所用 的原则，采取更加优惠的政策措施，鼓励省内外科技人才来我区进行科技攻关和创业。进一步创新人才流动机制，让更多的高级人才通过短期聘用、技术服务、项目合作、项目承包等方式为海东经济社会发展服务。推动人才市场体系建设，有效发挥市场在科技人才资源配置中的基础性作用。鼓励和引导科技人员和高等院校毕业生在我区创办各类民营科技型企业。深入实施科技特派员服务基层和创新创业行动，支持科技人员到农村和农业领域创业，开展农业技术服务和经营活动，为新农村建设提供智力支持。继续完善科技奖励制度，重奖在科技创新创业中做出重大贡献的科技人员。', '。认真落实《青海省人民政府办公厅转发省科技厅等部门〈关于加快推进县（市）科技进步的意见〉的通知》精神，把推进县、乡（镇）科技进步摆在经济社会发展的关键位置，切实加强科技管理和服务体系建设，进一步健全科技工作机构，配齐配强领导和工作人员，明确工作职责，保证编制和人员相对稳定。加强科技服务体系建设，充分发挥地、县、乡科技教育领导小组的职能作用，加强统筹协调和督促检查，调动各方面的积极性，形成全社会支持科技创新的强大合力。各县、各部门要将科技事业发展的有关任务纳入工作规划，制定实施细则，落实具体政策措施，并认真组织实施。各级党委、政府要进一步加强和改善对科协、共青团、妇联等群众团体的领导，充分发挥他们在科技宣传推广和应用过程中的作用。大力培育创新文化。各级党委、政府和有关部门要加大对科技事业发展典型事例、典型项目、典型人物的宣传，努力为增强科技创新能力，建设创新型海东营造良好的舆论氛围、文化氛围和社会氛围。', '加强对知识产权的宣传、保护和人才培养。制定加强知识产权保护和管理的有关办法，引导企事业单位建立和完善知识产权管理制度，鼓励企事业单位和个人开发具有自主知识产权的技术和产品，积极培育具有自主知识产权的企业。加强对企业制定重要技术标准的指导协调，支持企业、行业协会自主制定和参与制定技术标准。', '广泛开展科技合作与交流，针对国民经济和社会发展的重大和关键技术，扩大开放，积极、广泛开展科技合作与交流，与大专院校、科研所建立科技合作关系，引进先进技术、人才、管理及技术装备，欢迎国外专家到我区工作或进行科技交流，鼓励他们带技术、带资金到我区进行科技合作开发或贸易。要为科技人员开展国际科技合作和出国进修、访问、交流、培训等科技活动创造条件，使他们在世界科技前沿博采众长，提高学术和技术水平，增强海东地区科技实力和经济增长的潜力。', '建立适应社会主义市场经济的科技创新运行机制，进一步健全科技决策机制，努力消除体制机制性障碍。加快科技行政管理部门职能转变，推进依法行政，提高宏观管理能力和服务水平。改进科技计划管理方式，突出项目整合和集成创新，重大科技公关项目实行公开招标。改革科技成果评价制度，完善专家评审机制和科技奖励制度。每年要进行一次科技成果登记评价工作，每五年进行一次科技进步奖、科学技术奖评审工作，对有突出贡献的科技人员给予重奖，并在技术职称评定上予以破格晋升。', '。大力加强基础教育和职业教育，扎实开展科技培训，通过农村劳动力转移技能培训、新型农民培训、 绿证 培训工程、 科技入户 工程、专业技术人员知识更新培训等项目的实施，全面提高广大农民群众的整体科技文化素质。同时要加强中小企业经理人的培养和培训教育工作。大力弘扬科学精神，传播科学思想，倡导科学方法，普及科学知识，以提升全民科学素质为目标，认真贯彻、积极推动实施《全民科学素质行动计划纲要》，努力构筑科普工作的 智力支撑、和谐发展、工作保障、素质教育 四大体系，全面提升科普工作层次。认真组织开展好 科技活动周 、 科普之冬 ， 科技下乡 等活动，努力提高广大群众的科技素质，促进物质文明和精神文明建设。', '建立马铃薯原种生产基地5000亩，标准化生产基地5万亩。在农业科技示范园区内新建马铃薯脱毒中心一处，组培室2000', '1、扩建大通苑、安定等肉牛养殖基地，新修暖棚牛舍40座，购置相应生产设备。2、购置相关生产设备。', '1、扩建余家奶牛养殖基地。新修暖棚牛舍20座，配套生产设备。2、新修暖棚牛舍20座，配套相应生产设备。', '建设配送包装加工车间、交易棚、检测室、冷链储运和信息网络，及一座15000吨的保鲜库。', '台子乡建设一座2000吨冷藏保鲜库，在东和、林川、塘川、丹麻、高寨等5个乡镇各建一座500吨保鲜冷藏库。', '占地10亩，分安全检测实验室，土壤肥料及重金属检测室，农药检测室，无菌操作室，化学分析室，办公室等及配套设施', '黄河上游的李家峡、康扬、苏志、公伯峡和积石峡水库建成10平方公里冷水网箱养殖基地。年产25吨以上优质高原虹鳟鱼、金鳟鱼等冷水鱼。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>288</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>海东地区扶贫局年三公经费支出和年预算安排情况说明</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2012-10-15</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46864.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['2011年我局没有人员因公出国(境)业务培训和交流，所以没有开支因公出国(境)费用。', '2011年我局公务接待费7.8万元，主要用于接待省外、本省和六县扶贫系统来我区学习、考察、检查、督导、调研工作情况人员时的用餐费、会议室租赁费；', '2012年，拟安排我局公务接待费预算5万元。主要接待省内外和六县扶贫系统来我局学习、考察、检查、督导等用餐。', '2011年公务用车购置及运行费支出6.57万元，主要用于参加各项会议、业务工作检查督导，对六县进行季度督查、半年质量抽查、年终考核等所需的公务用车燃料费、维修费、过路费及车辆保险支出。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>288</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>海东市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>海东地区司法局年三公经费支出和年预算安排情况说明</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2012-10-15</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.haidong.gov.cn/html/58/46866.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['2011年，因公出国（境）支出2.98万元，主要用于本局局长、平安县司法局长等一行四人组团出访日本、韩国参加 一村一品 经验考察团所发生的境外住宿、伙食、公杂、零用、护照、签证、资料、联络服务、国际往返全程经济舱机票费用。', '2012年，因公出境费用支出 9万元，主要用于本局领导，基层科长，办公室主任四位同志赴广东、香港、澳门、南昌、合肥等地学习考察社会管理创新工作所发生住宿、伙食、交通等费用3万元；7月份本局局长出访澳大利亚、新西兰就政法工作进行学习考察所发生的境外公务、食宿、交通，国际交通等所发生的费用5万元；5-6月份本局副局长一人赴台湾学习考察所发生的交通、住宿、伙食等费用1万元。', '2011年，公务接待费支出7.14万元。主要是用于召开全区司法行政会议，全区司法局长会议，省厅社区矫正工作培训，省厅 五五 普法培训班，人民调解培训班等发生的交通费、住宿费、用餐费、会议室租赁等费用。', '2012年，拟安排公务接待费预算7万元。预算安排的主要理由是:召开全区司法行政会议， 六五 普法工作的启动，全区司法局长会议，省厅社区矫正工作培训，人民调解工作培训等所要发生的交通费、住宿费、用餐费、会议室租赁等费用。', '2011年，海东地区司法局没有发生公务用车购置。车辆运行费用8.4万元，主要用于司法局领导赴玉树州慰问司法行政工作人员，单位人员下乡，开展基层工作调研，社区矫正、公证律师、法律援助培训学习调研等所发生的车辆燃料费、维修费、过路过桥费、保险费等', '2012年,海东司法局车辆运行维护费8万元。主要用于开展基层工作调研,单位人员下乡等所要发生的车辆燃料费、维修费、过路过桥费、保险费等。']</t>
         </is>
